--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5691C85-6BAA-4F80-B1A9-13A044B41D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC36C29C-238F-4598-9BC6-76577EDBDFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="SkillTable" sheetId="4" r:id="rId3"/>
     <sheet name="SkillLevelTable" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="178">
   <si>
     <t>actorId|String</t>
   </si>
@@ -547,6 +550,37 @@
   </si>
   <si>
     <t>Meteor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IceStorm</t>
+  </si>
+  <si>
+    <t>IceStormCreate</t>
+  </si>
+  <si>
+    <t>IceStormSkillInfo</t>
+  </si>
+  <si>
+    <t>FallingSword</t>
+  </si>
+  <si>
+    <t>FallingSwordCreate</t>
+  </si>
+  <si>
+    <t>FallingSwordSkillInfo</t>
+  </si>
+  <si>
+    <t>Meteor</t>
+  </si>
+  <si>
+    <t>MeteorCreate</t>
+  </si>
+  <si>
+    <t>MeteorSkillInfo</t>
+  </si>
+  <si>
+    <t>Actor0242</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,7 +950,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E17F0A-8BD5-4C3A-9DFE-69FEAF521261}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1903,10 +1939,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2093,19 +2129,22 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>169</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" t="b">
@@ -2123,23 +2162,30 @@
       <c r="N5" t="b">
         <v>0</v>
       </c>
+      <c r="O5" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="I6" s="1"/>
       <c r="J6" t="b">
         <v>0</v>
       </c>
@@ -2154,24 +2200,31 @@
       </c>
       <c r="N6" t="b">
         <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="I7" s="1"/>
       <c r="J7" t="b">
         <v>0</v>
       </c>
@@ -2186,24 +2239,28 @@
       </c>
       <c r="N7" t="b">
         <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" t="b">
         <v>0</v>
       </c>
@@ -2222,19 +2279,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
@@ -2254,10 +2311,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2266,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
@@ -2286,10 +2343,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2298,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
@@ -2318,10 +2375,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2330,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -2350,10 +2407,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2362,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
@@ -2382,10 +2439,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -2394,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J14" t="b">
         <v>0</v>
@@ -2414,19 +2471,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J15" t="b">
         <v>0</v>
@@ -2446,10 +2503,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -2458,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -2478,19 +2535,19 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -2510,10 +2567,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -2522,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
@@ -2542,19 +2599,19 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J19" t="b">
         <v>0</v>
@@ -2574,10 +2631,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -2586,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J20" t="b">
         <v>0</v>
@@ -2606,10 +2663,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -2618,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J21" t="b">
         <v>0</v>
@@ -2638,10 +2695,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -2650,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J22" t="b">
         <v>0</v>
@@ -2670,10 +2727,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -2682,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J23" t="b">
         <v>0</v>
@@ -2702,10 +2759,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -2714,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J24" t="b">
         <v>0</v>
@@ -2734,10 +2791,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -2746,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J25" t="b">
         <v>0</v>
@@ -2766,10 +2823,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -2778,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J26" t="b">
         <v>0</v>
@@ -2798,10 +2855,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -2810,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -2830,10 +2887,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -2842,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
@@ -2862,10 +2919,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -2874,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>
@@ -2894,10 +2951,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -2906,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J30" t="b">
         <v>0</v>
@@ -2926,10 +2983,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -2938,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
@@ -2958,10 +3015,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -2970,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J32" t="b">
         <v>0</v>
@@ -2990,10 +3047,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -3002,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J33" t="b">
         <v>0</v>
@@ -3022,34 +3079,25 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
-      <c r="H34" t="s">
-        <v>139</v>
-      </c>
-      <c r="I34" t="s">
-        <v>140</v>
+      <c r="G34" t="s">
+        <v>133</v>
       </c>
       <c r="J34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -3063,22 +3111,19 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>134</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
@@ -3098,17 +3143,20 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
+      <c r="G36" t="s">
+        <v>135</v>
+      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
@@ -3116,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="b">
         <v>0</v>
@@ -3127,16 +3175,16 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E37">
         <v>5</v>
@@ -3144,11 +3192,17 @@
       <c r="F37" t="b">
         <v>0</v>
       </c>
+      <c r="H37" t="s">
+        <v>139</v>
+      </c>
+      <c r="I37" t="s">
+        <v>140</v>
+      </c>
       <c r="J37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -3162,16 +3216,16 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -3197,10 +3251,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C39">
         <v>2</v>
@@ -3215,12 +3269,111 @@
         <v>0</v>
       </c>
       <c r="L39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
       </c>
       <c r="N39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC36C29C-238F-4598-9BC6-76577EDBDFF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6802F5D8-838B-46E0-83EC-8E01C8D23E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
@@ -580,7 +580,7 @@
     <t>MeteorSkillInfo</t>
   </si>
   <si>
-    <t>Actor0242</t>
+    <t>Actor0245</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6802F5D8-838B-46E0-83EC-8E01C8D23E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64640899-C5A7-414C-AE8B-5BC3CAF5EBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="178">
   <si>
     <t>actorId|String</t>
   </si>
@@ -303,9 +303,6 @@
     <t>skillType|Int</t>
   </si>
   <si>
-    <t>icon|String</t>
-  </si>
-  <si>
     <t>cooltime|Float</t>
   </si>
   <si>
@@ -456,9 +453,6 @@
     <t>S_Forward_ray</t>
   </si>
   <si>
-    <t>Skill_ActiveOne001_Name</t>
-  </si>
-  <si>
     <t>Skill_ActiveOne001_Description</t>
   </si>
   <si>
@@ -510,78 +504,73 @@
     <t>AtkUpBuff001,DefUpBuff001</t>
   </si>
   <si>
-    <t>autoSkill|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IceStorm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effectAddress|String!</t>
   </si>
   <si>
+    <t>IceStormCreate</t>
+  </si>
+  <si>
     <t>IceStormSkillInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FallingSwordCreate</t>
   </si>
   <si>
     <t>FallingSwordSkillInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeteorCreate</t>
   </si>
   <si>
     <t>MeteorSkillInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IceStormCreate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FallingSwordCreate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MeteorCreate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FallingSword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meteor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IceStorm</t>
-  </si>
-  <si>
-    <t>IceStormCreate</t>
-  </si>
-  <si>
-    <t>IceStormSkillInfo</t>
-  </si>
-  <si>
-    <t>FallingSword</t>
-  </si>
-  <si>
-    <t>FallingSwordCreate</t>
-  </si>
-  <si>
-    <t>FallingSwordSkillInfo</t>
-  </si>
-  <si>
-    <t>Meteor</t>
-  </si>
-  <si>
-    <t>MeteorCreate</t>
-  </si>
-  <si>
-    <t>MeteorSkillInfo</t>
-  </si>
-  <si>
-    <t>Actor0245</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preview_AncientGuard</t>
+  </si>
+  <si>
+    <t>Preview_AngelStatue_Big</t>
+  </si>
+  <si>
+    <t>Preview_ArcherySamurai</t>
+  </si>
+  <si>
+    <t>SpellName_IceStorm</t>
+  </si>
+  <si>
+    <t>SpellDesc_IceStorm</t>
+  </si>
+  <si>
+    <t>SpellName_FallingSword</t>
+  </si>
+  <si>
+    <t>SpellDesc_FallingSword</t>
+  </si>
+  <si>
+    <t>SpellName_Meteor</t>
+  </si>
+  <si>
+    <t>SpellDesc_Meteor</t>
+  </si>
+  <si>
+    <t>grade|Int</t>
+  </si>
+  <si>
+    <t>iconPrefab|String</t>
+  </si>
+  <si>
+    <t>gachaWeight|Float</t>
+  </si>
+  <si>
+    <t>spell|Bool</t>
+  </si>
+  <si>
+    <t>Spell_0001</t>
+  </si>
+  <si>
+    <t>Spell_0002</t>
+  </si>
+  <si>
+    <t>Spell_0003</t>
   </si>
 </sst>
 </file>
@@ -1939,31 +1928,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="17.25" customWidth="1"/>
-    <col min="9" max="9" width="30.625" customWidth="1"/>
-    <col min="10" max="10" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.375" customWidth="1"/>
-    <col min="13" max="14" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="22.75" customWidth="1"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="11" max="11" width="30.625" customWidth="1"/>
+    <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.375" customWidth="1"/>
+    <col min="15" max="16" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1974,67 +1962,78 @@
         <v>87</v>
       </c>
       <c r="D1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>90</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>91</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>92</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>93</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>94</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>95</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>96</v>
       </c>
-      <c r="N1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="F2" t="b">
+      <c r="G2">
+        <v>1.5</v>
+      </c>
+      <c r="H2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>163</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
+      <c r="I2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -2045,35 +2044,46 @@
       <c r="N2" t="b">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" t="b">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1.5</v>
+      </c>
+      <c r="H3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
+      <c r="I3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -2084,35 +2094,46 @@
       <c r="N3" t="b">
         <v>0</v>
       </c>
-      <c r="O3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4">
         <v>15</v>
       </c>
-      <c r="F4" t="b">
+      <c r="G4">
+        <v>1.5</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" t="b">
-        <v>0</v>
+      <c r="I4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -2123,36 +2144,30 @@
       <c r="N4" t="b">
         <v>0</v>
       </c>
-      <c r="O4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>169</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="1"/>
       <c r="L5" t="b">
         <v>0</v>
       </c>
@@ -2162,36 +2177,27 @@
       <c r="N5" t="b">
         <v>0</v>
       </c>
-      <c r="O5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="1"/>
       <c r="L6" t="b">
         <v>0</v>
       </c>
@@ -2201,36 +2207,27 @@
       <c r="N6" t="b">
         <v>0</v>
       </c>
-      <c r="O6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="1"/>
       <c r="L7" t="b">
         <v>0</v>
       </c>
@@ -2240,33 +2237,27 @@
       <c r="N7" t="b">
         <v>0</v>
       </c>
-      <c r="O7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="1"/>
       <c r="L8" t="b">
         <v>0</v>
       </c>
@@ -2276,28 +2267,25 @@
       <c r="N8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" t="b">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -2308,28 +2296,25 @@
       <c r="N9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" t="b">
-        <v>0</v>
+      <c r="I10" t="s">
+        <v>106</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -2340,28 +2325,25 @@
       <c r="N10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" t="b">
-        <v>0</v>
+      <c r="I11" t="s">
+        <v>108</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -2372,28 +2354,25 @@
       <c r="N11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
-        <v>105</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>0</v>
+      <c r="I12" t="s">
+        <v>110</v>
       </c>
       <c r="L12" t="b">
         <v>0</v>
@@ -2404,28 +2383,25 @@
       <c r="N12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>107</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" t="b">
-        <v>0</v>
+      <c r="I13" t="s">
+        <v>112</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -2436,28 +2412,25 @@
       <c r="N13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" t="b">
-        <v>0</v>
+      <c r="I14" t="s">
+        <v>114</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -2468,28 +2441,25 @@
       <c r="N14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>111</v>
-      </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" t="b">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>115</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -2500,28 +2470,25 @@
       <c r="N15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>113</v>
-      </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
-        <v>0</v>
+      <c r="I16" t="s">
+        <v>117</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -2532,28 +2499,25 @@
       <c r="N16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>115</v>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" t="b">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>118</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -2564,28 +2528,25 @@
       <c r="N17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>116</v>
-      </c>
-      <c r="J18" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" t="b">
-        <v>0</v>
+      <c r="I18" t="s">
+        <v>119</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -2596,28 +2557,25 @@
       <c r="N18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>118</v>
-      </c>
-      <c r="J19" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" t="b">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>120</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -2628,28 +2586,25 @@
       <c r="N19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>119</v>
-      </c>
-      <c r="J20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" t="b">
-        <v>0</v>
+      <c r="I20" t="s">
+        <v>121</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -2660,28 +2615,25 @@
       <c r="N20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>120</v>
-      </c>
-      <c r="J21" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" t="b">
-        <v>0</v>
+      <c r="I21" t="s">
+        <v>122</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2692,28 +2644,25 @@
       <c r="N21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
-        <v>121</v>
-      </c>
-      <c r="J22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="b">
-        <v>0</v>
+      <c r="I22" t="s">
+        <v>123</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2724,28 +2673,25 @@
       <c r="N22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>122</v>
-      </c>
-      <c r="J23" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" t="b">
-        <v>0</v>
+      <c r="I23" t="s">
+        <v>124</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -2756,28 +2702,25 @@
       <c r="N23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>123</v>
-      </c>
-      <c r="J24" t="b">
-        <v>0</v>
-      </c>
-      <c r="K24" t="b">
-        <v>0</v>
+      <c r="I24" t="s">
+        <v>125</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -2788,28 +2731,25 @@
       <c r="N24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" t="b">
-        <v>0</v>
-      </c>
-      <c r="K25" t="b">
-        <v>0</v>
+      <c r="I25" t="s">
+        <v>126</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -2820,28 +2760,25 @@
       <c r="N25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>125</v>
-      </c>
-      <c r="J26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K26" t="b">
-        <v>0</v>
+      <c r="I26" t="s">
+        <v>127</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -2852,28 +2789,25 @@
       <c r="N26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="F27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
-        <v>126</v>
-      </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="b">
-        <v>0</v>
+      <c r="I27" t="s">
+        <v>128</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -2884,28 +2818,25 @@
       <c r="N27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>127</v>
-      </c>
-      <c r="J28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" t="b">
-        <v>0</v>
+      <c r="I28" t="s">
+        <v>129</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -2916,28 +2847,25 @@
       <c r="N28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" t="s">
-        <v>128</v>
-      </c>
-      <c r="J29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" t="b">
-        <v>0</v>
+      <c r="I29" t="s">
+        <v>130</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -2948,28 +2876,25 @@
       <c r="N29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="s">
-        <v>129</v>
-      </c>
-      <c r="J30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" t="b">
-        <v>0</v>
+      <c r="I30" t="s">
+        <v>131</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -2980,28 +2905,25 @@
       <c r="N30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>130</v>
-      </c>
-      <c r="J31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K31" t="b">
-        <v>0</v>
+      <c r="I31" t="s">
+        <v>132</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -3012,28 +2934,25 @@
       <c r="N31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" t="s">
-        <v>131</v>
-      </c>
-      <c r="J32" t="b">
-        <v>0</v>
-      </c>
-      <c r="K32" t="b">
-        <v>0</v>
+      <c r="I32" t="s">
+        <v>133</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -3044,28 +2963,25 @@
       <c r="N32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32" t="b">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" t="s">
-        <v>132</v>
-      </c>
-      <c r="J33" t="b">
-        <v>0</v>
-      </c>
-      <c r="K33" t="b">
-        <v>0</v>
+      <c r="I33" t="s">
+        <v>134</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -3076,60 +2992,63 @@
       <c r="N33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>133</v>
-      </c>
-      <c r="J34" t="b">
-        <v>0</v>
-      </c>
-      <c r="K34" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>138</v>
       </c>
       <c r="L34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>134</v>
-      </c>
-      <c r="J35" t="b">
-        <v>0</v>
-      </c>
-      <c r="K35" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>
@@ -3140,28 +3059,22 @@
       <c r="N35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>135</v>
-      </c>
-      <c r="J36" t="b">
-        <v>0</v>
-      </c>
-      <c r="K36" t="b">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L36" t="b">
         <v>0</v>
@@ -3170,39 +3083,30 @@
         <v>0</v>
       </c>
       <c r="N36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="O36" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37">
-        <v>5</v>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="s">
-        <v>139</v>
-      </c>
-      <c r="I37" t="s">
-        <v>140</v>
-      </c>
-      <c r="J37" t="b">
-        <v>1</v>
-      </c>
-      <c r="K37" t="b">
-        <v>1</v>
+      <c r="E37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
       </c>
       <c r="L37" t="b">
         <v>0</v>
@@ -3213,31 +3117,28 @@
       <c r="N37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O37" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="b">
-        <v>0</v>
-      </c>
-      <c r="K38" t="b">
-        <v>0</v>
+      <c r="E38" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
       </c>
       <c r="L38" t="b">
         <v>0</v>
@@ -3248,28 +3149,25 @@
       <c r="N38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" t="s">
         <v>143</v>
-      </c>
-      <c r="B39" t="s">
-        <v>137</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="b">
-        <v>0</v>
-      </c>
-      <c r="K39" t="b">
-        <v>0</v>
-      </c>
       <c r="L39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="b">
         <v>0</v>
@@ -3277,103 +3175,10 @@
       <c r="N39" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="b">
-        <v>0</v>
-      </c>
-      <c r="K40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" t="b">
-        <v>0</v>
-      </c>
-      <c r="M40" t="b">
-        <v>0</v>
-      </c>
-      <c r="N40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="s">
-        <v>148</v>
-      </c>
-      <c r="E41">
-        <v>5</v>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" t="b">
-        <v>0</v>
-      </c>
-      <c r="M41" t="b">
-        <v>0</v>
-      </c>
-      <c r="N41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>149</v>
-      </c>
-      <c r="B42" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="F42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" t="b">
-        <v>0</v>
-      </c>
-      <c r="M42" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42" t="b">
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3407,30 +3212,30 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" t="s">
-        <v>92</v>
-      </c>
       <c r="H1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3439,16 +3244,16 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3457,16 +3262,16 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3475,15 +3280,15 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3492,15 +3297,15 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3509,65 +3314,65 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64640899-C5A7-414C-AE8B-5BC3CAF5EBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACC195D-C7C7-477D-9381-8906DFD93310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="179">
   <si>
     <t>actorId|String</t>
   </si>
@@ -571,6 +571,9 @@
   </si>
   <si>
     <t>Spell_0003</t>
+  </si>
+  <si>
+    <t>accumulatedAtk|Int</t>
   </si>
 </sst>
 </file>
@@ -1930,7 +1933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3191,23 +3196,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.75" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="8" max="8" width="30.75" customWidth="1"/>
+    <col min="9" max="9" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3218,22 +3226,25 @@
         <v>88</v>
       </c>
       <c r="D1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>90</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>91</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -3243,15 +3254,15 @@
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -3261,15 +3272,15 @@
       <c r="C3">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -3279,14 +3290,14 @@
       <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>152</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -3296,14 +3307,14 @@
       <c r="C5">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>152</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -3313,66 +3324,276 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>152</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>141</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>141</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>141</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>141</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>141</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>150</v>
+      </c>
+      <c r="I16">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="I18">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="I19">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>150</v>
+      </c>
+      <c r="I21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="I25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>150</v>
+      </c>
+      <c r="I26">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACC195D-C7C7-477D-9381-8906DFD93310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329A7523-55B1-4A13-AB54-526B248C4FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -525,15 +525,6 @@
     <t>MeteorSkillInfo</t>
   </si>
   <si>
-    <t>Preview_AncientGuard</t>
-  </si>
-  <si>
-    <t>Preview_AngelStatue_Big</t>
-  </si>
-  <si>
-    <t>Preview_ArcherySamurai</t>
-  </si>
-  <si>
     <t>SpellName_IceStorm</t>
   </si>
   <si>
@@ -574,6 +565,15 @@
   </si>
   <si>
     <t>accumulatedAtk|Int</t>
+  </si>
+  <si>
+    <t>Spell_IceStorm</t>
+  </si>
+  <si>
+    <t>Spell_FallingSword</t>
+  </si>
+  <si>
+    <t>Spell_Meteor</t>
   </si>
 </sst>
 </file>
@@ -1933,9 +1933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1967,19 +1965,19 @@
         <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F1" t="s">
         <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I1" t="s">
         <v>89</v>
@@ -2011,7 +2009,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2020,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -2035,10 +2033,10 @@
         <v>156</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -2061,7 +2059,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -2070,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2085,10 +2083,10 @@
         <v>158</v>
       </c>
       <c r="J3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -2111,7 +2109,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2120,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -2135,10 +2133,10 @@
         <v>160</v>
       </c>
       <c r="J4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -3198,7 +3196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3226,7 +3224,7 @@
         <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -3388,7 +3386,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3402,7 +3400,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -3416,7 +3414,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -3430,7 +3428,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -3444,7 +3442,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -3458,7 +3456,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3472,7 +3470,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -3486,7 +3484,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -3500,7 +3498,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -3514,7 +3512,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -3528,7 +3526,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3542,7 +3540,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -3556,7 +3554,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -3570,7 +3568,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -3584,7 +3582,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B26">
         <v>5</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329A7523-55B1-4A13-AB54-526B248C4FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA6E73F-12FF-418E-904C-7C01F6B181C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-14055" yWindow="1665" windowWidth="13515" windowHeight="14265" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="180">
   <si>
     <t>actorId|String</t>
   </si>
@@ -574,6 +574,9 @@
   </si>
   <si>
     <t>Spell_Meteor</t>
+  </si>
+  <si>
+    <t>star|Int</t>
   </si>
 </sst>
 </file>
@@ -1931,30 +1934,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="22.75" customWidth="1"/>
-    <col min="10" max="10" width="17.25" customWidth="1"/>
-    <col min="11" max="11" width="30.625" customWidth="1"/>
-    <col min="12" max="12" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.375" customWidth="1"/>
-    <col min="15" max="16" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.875" customWidth="1"/>
+    <col min="4" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.875" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
+    <col min="11" max="11" width="17.25" customWidth="1"/>
+    <col min="12" max="12" width="30.625" customWidth="1"/>
+    <col min="13" max="13" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.375" customWidth="1"/>
+    <col min="16" max="17" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1968,46 +1973,49 @@
         <v>168</v>
       </c>
       <c r="E1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>88</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>170</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>171</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>90</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>94</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>95</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>96</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -2017,30 +2025,30 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>176</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.5</v>
       </c>
-      <c r="H2" t="b">
+      <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>156</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
       <c r="M2" t="b">
         <v>0</v>
       </c>
@@ -2053,11 +2061,14 @@
       <c r="P2" t="b">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -2067,30 +2078,30 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
         <v>177</v>
       </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
       <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
         <v>1.5</v>
       </c>
-      <c r="H3" t="b">
+      <c r="I3" t="b">
         <v>1</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>158</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>164</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
       <c r="M3" t="b">
         <v>0</v>
       </c>
@@ -2103,11 +2114,14 @@
       <c r="P3" t="b">
         <v>0</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -2115,32 +2129,32 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
         <v>178</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>15</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.5</v>
       </c>
-      <c r="H4" t="b">
+      <c r="I4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>160</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>166</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
       <c r="M4" t="b">
         <v>0</v>
       </c>
@@ -2153,11 +2167,14 @@
       <c r="P4" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2167,13 +2184,10 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>97</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
+      <c r="L5" s="1"/>
       <c r="M5" t="b">
         <v>0</v>
       </c>
@@ -2186,8 +2200,11 @@
       <c r="P5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2197,13 +2214,10 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>98</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" t="b">
-        <v>0</v>
-      </c>
+      <c r="L6" s="1"/>
       <c r="M6" t="b">
         <v>0</v>
       </c>
@@ -2216,8 +2230,11 @@
       <c r="P6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -2227,13 +2244,10 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" t="b">
-        <v>0</v>
-      </c>
+      <c r="L7" s="1"/>
       <c r="M7" t="b">
         <v>0</v>
       </c>
@@ -2246,8 +2260,11 @@
       <c r="P7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -2257,13 +2274,10 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>102</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" t="b">
-        <v>0</v>
-      </c>
+      <c r="L8" s="1"/>
       <c r="M8" t="b">
         <v>0</v>
       </c>
@@ -2276,8 +2290,11 @@
       <c r="P8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -2287,12 +2304,9 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>104</v>
       </c>
-      <c r="L9" t="b">
-        <v>0</v>
-      </c>
       <c r="M9" t="b">
         <v>0</v>
       </c>
@@ -2305,8 +2319,11 @@
       <c r="P9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -2316,12 +2333,9 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>106</v>
       </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
       <c r="M10" t="b">
         <v>0</v>
       </c>
@@ -2334,8 +2348,11 @@
       <c r="P10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -2345,12 +2362,9 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>108</v>
       </c>
-      <c r="L11" t="b">
-        <v>0</v>
-      </c>
       <c r="M11" t="b">
         <v>0</v>
       </c>
@@ -2363,8 +2377,11 @@
       <c r="P11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -2374,12 +2391,9 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>110</v>
       </c>
-      <c r="L12" t="b">
-        <v>0</v>
-      </c>
       <c r="M12" t="b">
         <v>0</v>
       </c>
@@ -2392,8 +2406,11 @@
       <c r="P12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -2403,12 +2420,9 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>112</v>
       </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
       <c r="M13" t="b">
         <v>0</v>
       </c>
@@ -2421,8 +2435,11 @@
       <c r="P13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -2432,12 +2449,9 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>114</v>
       </c>
-      <c r="L14" t="b">
-        <v>0</v>
-      </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
@@ -2450,8 +2464,11 @@
       <c r="P14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2461,12 +2478,9 @@
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>115</v>
       </c>
-      <c r="L15" t="b">
-        <v>0</v>
-      </c>
       <c r="M15" t="b">
         <v>0</v>
       </c>
@@ -2479,8 +2493,11 @@
       <c r="P15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -2490,12 +2507,9 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>117</v>
       </c>
-      <c r="L16" t="b">
-        <v>0</v>
-      </c>
       <c r="M16" t="b">
         <v>0</v>
       </c>
@@ -2508,8 +2522,11 @@
       <c r="P16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2519,12 +2536,9 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>118</v>
       </c>
-      <c r="L17" t="b">
-        <v>0</v>
-      </c>
       <c r="M17" t="b">
         <v>0</v>
       </c>
@@ -2537,8 +2551,11 @@
       <c r="P17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2548,12 +2565,9 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>119</v>
       </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
       <c r="M18" t="b">
         <v>0</v>
       </c>
@@ -2566,8 +2580,11 @@
       <c r="P18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2577,12 +2594,9 @@
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>120</v>
       </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
       <c r="M19" t="b">
         <v>0</v>
       </c>
@@ -2595,8 +2609,11 @@
       <c r="P19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2606,12 +2623,9 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>121</v>
       </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
       <c r="M20" t="b">
         <v>0</v>
       </c>
@@ -2624,8 +2638,11 @@
       <c r="P20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2635,12 +2652,9 @@
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>122</v>
       </c>
-      <c r="L21" t="b">
-        <v>0</v>
-      </c>
       <c r="M21" t="b">
         <v>0</v>
       </c>
@@ -2653,8 +2667,11 @@
       <c r="P21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -2664,12 +2681,9 @@
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>123</v>
       </c>
-      <c r="L22" t="b">
-        <v>0</v>
-      </c>
       <c r="M22" t="b">
         <v>0</v>
       </c>
@@ -2682,8 +2696,11 @@
       <c r="P22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -2693,12 +2710,9 @@
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>124</v>
       </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
       <c r="M23" t="b">
         <v>0</v>
       </c>
@@ -2711,8 +2725,11 @@
       <c r="P23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -2722,12 +2739,9 @@
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>125</v>
       </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
       <c r="M24" t="b">
         <v>0</v>
       </c>
@@ -2740,8 +2754,11 @@
       <c r="P24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -2751,12 +2768,9 @@
       <c r="C25">
         <v>3</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>126</v>
       </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
       <c r="M25" t="b">
         <v>0</v>
       </c>
@@ -2769,8 +2783,11 @@
       <c r="P25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2780,12 +2797,9 @@
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>127</v>
       </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
       <c r="M26" t="b">
         <v>0</v>
       </c>
@@ -2798,8 +2812,11 @@
       <c r="P26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -2809,12 +2826,9 @@
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>128</v>
       </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
       <c r="M27" t="b">
         <v>0</v>
       </c>
@@ -2827,8 +2841,11 @@
       <c r="P27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -2838,12 +2855,9 @@
       <c r="C28">
         <v>3</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>129</v>
       </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
       <c r="M28" t="b">
         <v>0</v>
       </c>
@@ -2856,8 +2870,11 @@
       <c r="P28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -2867,12 +2884,9 @@
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>130</v>
       </c>
-      <c r="L29" t="b">
-        <v>0</v>
-      </c>
       <c r="M29" t="b">
         <v>0</v>
       </c>
@@ -2885,8 +2899,11 @@
       <c r="P29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -2896,12 +2913,9 @@
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>131</v>
       </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
       <c r="M30" t="b">
         <v>0</v>
       </c>
@@ -2914,8 +2928,11 @@
       <c r="P30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -2925,12 +2942,9 @@
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>132</v>
       </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
       <c r="M31" t="b">
         <v>0</v>
       </c>
@@ -2943,8 +2957,11 @@
       <c r="P31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -2954,12 +2971,9 @@
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>133</v>
       </c>
-      <c r="L32" t="b">
-        <v>0</v>
-      </c>
       <c r="M32" t="b">
         <v>0</v>
       </c>
@@ -2972,8 +2986,11 @@
       <c r="P32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -2983,12 +3000,9 @@
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>134</v>
       </c>
-      <c r="L33" t="b">
-        <v>0</v>
-      </c>
       <c r="M33" t="b">
         <v>0</v>
       </c>
@@ -3001,8 +3015,11 @@
       <c r="P33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -3012,23 +3029,20 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>137</v>
       </c>
-      <c r="F34">
-        <v>5</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="L34" t="s">
         <v>138</v>
-      </c>
-      <c r="L34" t="b">
-        <v>1</v>
       </c>
       <c r="M34" t="b">
         <v>1</v>
       </c>
       <c r="N34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="b">
         <v>0</v>
@@ -3036,8 +3050,11 @@
       <c r="P34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -3047,14 +3064,11 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>140</v>
       </c>
-      <c r="F35">
-        <v>5</v>
-      </c>
-      <c r="L35" t="b">
-        <v>0</v>
+      <c r="G35">
+        <v>5</v>
       </c>
       <c r="M35" t="b">
         <v>0</v>
@@ -3068,8 +3082,11 @@
       <c r="P35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -3079,23 +3096,23 @@
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="L36" t="b">
-        <v>0</v>
-      </c>
       <c r="M36" t="b">
         <v>0</v>
       </c>
       <c r="N36" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36" t="b">
         <v>1</v>
       </c>
-      <c r="O36" t="b">
-        <v>0</v>
-      </c>
       <c r="P36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -3105,14 +3122,11 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>144</v>
       </c>
-      <c r="F37">
-        <v>5</v>
-      </c>
-      <c r="L37" t="b">
-        <v>0</v>
+      <c r="G37">
+        <v>5</v>
       </c>
       <c r="M37" t="b">
         <v>0</v>
@@ -3126,8 +3140,11 @@
       <c r="P37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -3137,14 +3154,11 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>146</v>
       </c>
-      <c r="F38">
-        <v>5</v>
-      </c>
-      <c r="L38" t="b">
-        <v>0</v>
+      <c r="G38">
+        <v>5</v>
       </c>
       <c r="M38" t="b">
         <v>0</v>
@@ -3158,8 +3172,11 @@
       <c r="P38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -3169,9 +3186,6 @@
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
       <c r="M39" t="b">
         <v>0</v>
       </c>
@@ -3182,6 +3196,9 @@
         <v>0</v>
       </c>
       <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA6E73F-12FF-418E-904C-7C01F6B181C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8122E1BF-CE6E-41EA-B1FB-A3B8E0B3CCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14055" yWindow="1665" windowWidth="13515" windowHeight="14265" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-21105" yWindow="1095" windowWidth="13515" windowHeight="14265" firstSheet="1" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="179">
   <si>
     <t>actorId|String</t>
   </si>
@@ -562,9 +562,6 @@
   </si>
   <si>
     <t>Spell_0003</t>
-  </si>
-  <si>
-    <t>accumulatedAtk|Int</t>
   </si>
   <si>
     <t>Spell_IceStorm</t>
@@ -1936,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1973,7 +1970,7 @@
         <v>168</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F1" t="s">
         <v>169</v>
@@ -2029,7 +2026,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -2082,7 +2079,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -2135,7 +2132,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -3211,9 +3208,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3222,15 +3219,14 @@
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.75" customWidth="1"/>
-    <col min="8" max="8" width="30.75" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3241,25 +3237,22 @@
         <v>88</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -3269,15 +3262,15 @@
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -3287,15 +3280,15 @@
       <c r="C3">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -3305,14 +3298,14 @@
       <c r="C4">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
         <v>152</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -3322,14 +3315,14 @@
       <c r="C5">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" t="s">
         <v>152</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -3339,275 +3332,230 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
         <v>152</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>141</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>141</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>141</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>141</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>141</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>172</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="I12">
+      <c r="H12">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>172</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="I13">
+      <c r="H13">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>172</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="D14">
-        <v>50</v>
-      </c>
-      <c r="I14">
+      <c r="H14">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>172</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
-      <c r="D15">
-        <v>100</v>
-      </c>
-      <c r="I15">
+      <c r="H15">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>172</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
-      <c r="D16">
-        <v>150</v>
-      </c>
-      <c r="I16">
+      <c r="H16">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>173</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="I17">
+      <c r="H17">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>173</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="I18">
+      <c r="H18">
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>173</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="D19">
-        <v>50</v>
-      </c>
-      <c r="I19">
+      <c r="H19">
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>173</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
-      <c r="I20">
+      <c r="H20">
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>173</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="D21">
-        <v>150</v>
-      </c>
-      <c r="I21">
+      <c r="H21">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>174</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="I22">
+      <c r="H22">
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>174</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="I23">
+      <c r="H23">
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>174</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="D24">
-        <v>50</v>
-      </c>
-      <c r="I24">
+      <c r="H24">
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>174</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="D25">
-        <v>100</v>
-      </c>
-      <c r="I25">
+      <c r="H25">
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>174</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="D26">
-        <v>150</v>
-      </c>
-      <c r="I26">
+      <c r="H26">
         <v>250</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8122E1BF-CE6E-41EA-B1FB-A3B8E0B3CCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6955B6D8-B7B3-4E87-8E52-89E9B46312C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21105" yWindow="1095" windowWidth="13515" windowHeight="14265" firstSheet="1" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="179">
   <si>
     <t>actorId|String</t>
   </si>
@@ -1933,9 +1933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3208,11 +3206,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3407,155 +3403,23 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="H16">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="H20">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="H21">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="H26">
         <v>250</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6955B6D8-B7B3-4E87-8E52-89E9B46312C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9A62C0-4FF1-4D76-A585-40BEF6566B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="180">
   <si>
     <t>actorId|String</t>
   </si>
@@ -574,6 +574,9 @@
   </si>
   <si>
     <t>star|Int</t>
+  </si>
+  <si>
+    <t>maxLevel|Int</t>
   </si>
 </sst>
 </file>
@@ -1931,30 +1934,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="22.75" customWidth="1"/>
-    <col min="11" max="11" width="17.25" customWidth="1"/>
-    <col min="12" max="12" width="30.625" customWidth="1"/>
-    <col min="13" max="13" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.375" customWidth="1"/>
-    <col min="16" max="17" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.875" customWidth="1"/>
+    <col min="4" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="22.75" customWidth="1"/>
+    <col min="12" max="12" width="17.25" customWidth="1"/>
+    <col min="13" max="13" width="30.625" customWidth="1"/>
+    <col min="14" max="14" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.375" customWidth="1"/>
+    <col min="17" max="18" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1971,46 +1976,49 @@
         <v>178</v>
       </c>
       <c r="F1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
         <v>169</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>170</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>171</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>89</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>90</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>91</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>92</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>93</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>94</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>96</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>172</v>
       </c>
@@ -2023,30 +2031,30 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
         <v>175</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.5</v>
       </c>
-      <c r="I2" t="b">
+      <c r="J2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>156</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>162</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
       <c r="N2" t="b">
         <v>0</v>
       </c>
@@ -2059,11 +2067,14 @@
       <c r="Q2" t="b">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -2076,30 +2087,30 @@
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>176</v>
       </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
       <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
         <v>1.5</v>
       </c>
-      <c r="I3" t="b">
+      <c r="J3" t="b">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>158</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>164</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
       <c r="N3" t="b">
         <v>0</v>
       </c>
@@ -2112,11 +2123,14 @@
       <c r="Q3" t="b">
         <v>0</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -2129,30 +2143,30 @@
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>177</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.5</v>
       </c>
-      <c r="I4" t="b">
+      <c r="J4" t="b">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>160</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>166</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
-      </c>
       <c r="N4" t="b">
         <v>0</v>
       </c>
@@ -2165,11 +2179,14 @@
       <c r="Q4" t="b">
         <v>0</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2179,13 +2196,10 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" t="b">
-        <v>0</v>
-      </c>
+      <c r="M5" s="1"/>
       <c r="N5" t="b">
         <v>0</v>
       </c>
@@ -2198,8 +2212,11 @@
       <c r="Q5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2209,13 +2226,10 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" t="b">
-        <v>0</v>
-      </c>
+      <c r="M6" s="1"/>
       <c r="N6" t="b">
         <v>0</v>
       </c>
@@ -2228,8 +2242,11 @@
       <c r="Q6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -2239,13 +2256,10 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" t="b">
-        <v>0</v>
-      </c>
+      <c r="M7" s="1"/>
       <c r="N7" t="b">
         <v>0</v>
       </c>
@@ -2258,8 +2272,11 @@
       <c r="Q7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -2269,13 +2286,10 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" t="b">
-        <v>0</v>
-      </c>
+      <c r="M8" s="1"/>
       <c r="N8" t="b">
         <v>0</v>
       </c>
@@ -2288,8 +2302,11 @@
       <c r="Q8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -2299,12 +2316,9 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>104</v>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
-      </c>
       <c r="N9" t="b">
         <v>0</v>
       </c>
@@ -2317,8 +2331,11 @@
       <c r="Q9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -2328,12 +2345,9 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>106</v>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
-      </c>
       <c r="N10" t="b">
         <v>0</v>
       </c>
@@ -2346,8 +2360,11 @@
       <c r="Q10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -2357,12 +2374,9 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>108</v>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
-      </c>
       <c r="N11" t="b">
         <v>0</v>
       </c>
@@ -2375,8 +2389,11 @@
       <c r="Q11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -2386,12 +2403,9 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>110</v>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
-      </c>
       <c r="N12" t="b">
         <v>0</v>
       </c>
@@ -2404,8 +2418,11 @@
       <c r="Q12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -2415,12 +2432,9 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>112</v>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
-      </c>
       <c r="N13" t="b">
         <v>0</v>
       </c>
@@ -2433,8 +2447,11 @@
       <c r="Q13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -2444,12 +2461,9 @@
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>114</v>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
-      </c>
       <c r="N14" t="b">
         <v>0</v>
       </c>
@@ -2462,8 +2476,11 @@
       <c r="Q14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2473,12 +2490,9 @@
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>115</v>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
-      </c>
       <c r="N15" t="b">
         <v>0</v>
       </c>
@@ -2491,8 +2505,11 @@
       <c r="Q15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -2502,12 +2519,9 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>117</v>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
-      </c>
       <c r="N16" t="b">
         <v>0</v>
       </c>
@@ -2520,8 +2534,11 @@
       <c r="Q16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2531,12 +2548,9 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>118</v>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
-      </c>
       <c r="N17" t="b">
         <v>0</v>
       </c>
@@ -2549,8 +2563,11 @@
       <c r="Q17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2560,12 +2577,9 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>119</v>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
-      </c>
       <c r="N18" t="b">
         <v>0</v>
       </c>
@@ -2578,8 +2592,11 @@
       <c r="Q18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2589,12 +2606,9 @@
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>120</v>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
-      </c>
       <c r="N19" t="b">
         <v>0</v>
       </c>
@@ -2607,8 +2621,11 @@
       <c r="Q19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2618,12 +2635,9 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>121</v>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
-      </c>
       <c r="N20" t="b">
         <v>0</v>
       </c>
@@ -2636,8 +2650,11 @@
       <c r="Q20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -2647,12 +2664,9 @@
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>122</v>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
-      </c>
       <c r="N21" t="b">
         <v>0</v>
       </c>
@@ -2665,8 +2679,11 @@
       <c r="Q21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -2676,12 +2693,9 @@
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>123</v>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
-      </c>
       <c r="N22" t="b">
         <v>0</v>
       </c>
@@ -2694,8 +2708,11 @@
       <c r="Q22" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -2705,12 +2722,9 @@
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>124</v>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
-      </c>
       <c r="N23" t="b">
         <v>0</v>
       </c>
@@ -2723,8 +2737,11 @@
       <c r="Q23" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -2734,12 +2751,9 @@
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>125</v>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
-      </c>
       <c r="N24" t="b">
         <v>0</v>
       </c>
@@ -2752,8 +2766,11 @@
       <c r="Q24" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -2763,12 +2780,9 @@
       <c r="C25">
         <v>3</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>126</v>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
-      </c>
       <c r="N25" t="b">
         <v>0</v>
       </c>
@@ -2781,8 +2795,11 @@
       <c r="Q25" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -2792,12 +2809,9 @@
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>127</v>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
-      </c>
       <c r="N26" t="b">
         <v>0</v>
       </c>
@@ -2810,8 +2824,11 @@
       <c r="Q26" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -2821,12 +2838,9 @@
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>128</v>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
-      </c>
       <c r="N27" t="b">
         <v>0</v>
       </c>
@@ -2839,8 +2853,11 @@
       <c r="Q27" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -2850,12 +2867,9 @@
       <c r="C28">
         <v>3</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>129</v>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
-      </c>
       <c r="N28" t="b">
         <v>0</v>
       </c>
@@ -2868,8 +2882,11 @@
       <c r="Q28" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -2879,12 +2896,9 @@
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>130</v>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
-      </c>
       <c r="N29" t="b">
         <v>0</v>
       </c>
@@ -2897,8 +2911,11 @@
       <c r="Q29" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -2908,12 +2925,9 @@
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>131</v>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
-      </c>
       <c r="N30" t="b">
         <v>0</v>
       </c>
@@ -2926,8 +2940,11 @@
       <c r="Q30" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>75</v>
       </c>
@@ -2937,12 +2954,9 @@
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>132</v>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
-      </c>
       <c r="N31" t="b">
         <v>0</v>
       </c>
@@ -2955,8 +2969,11 @@
       <c r="Q31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -2966,12 +2983,9 @@
       <c r="C32">
         <v>3</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>133</v>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
-      </c>
       <c r="N32" t="b">
         <v>0</v>
       </c>
@@ -2984,8 +2998,11 @@
       <c r="Q32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -2995,12 +3012,9 @@
       <c r="C33">
         <v>3</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>134</v>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
-      </c>
       <c r="N33" t="b">
         <v>0</v>
       </c>
@@ -3013,8 +3027,11 @@
       <c r="Q33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -3024,23 +3041,20 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>137</v>
       </c>
-      <c r="G34">
-        <v>5</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="M34" t="s">
         <v>138</v>
-      </c>
-      <c r="M34" t="b">
-        <v>1</v>
       </c>
       <c r="N34" t="b">
         <v>1</v>
       </c>
       <c r="O34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="b">
         <v>0</v>
@@ -3048,8 +3062,11 @@
       <c r="Q34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -3059,14 +3076,11 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>140</v>
       </c>
-      <c r="G35">
-        <v>5</v>
-      </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="H35">
+        <v>5</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -3080,8 +3094,11 @@
       <c r="Q35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -3091,23 +3108,23 @@
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
-      </c>
       <c r="N36" t="b">
         <v>0</v>
       </c>
       <c r="O36" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
         <v>1</v>
       </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
       <c r="Q36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -3117,14 +3134,11 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>144</v>
       </c>
-      <c r="G37">
-        <v>5</v>
-      </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="H37">
+        <v>5</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -3138,8 +3152,11 @@
       <c r="Q37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>145</v>
       </c>
@@ -3149,14 +3166,11 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>146</v>
       </c>
-      <c r="G38">
-        <v>5</v>
-      </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="H38">
+        <v>5</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -3170,8 +3184,11 @@
       <c r="Q38" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -3181,9 +3198,6 @@
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
-      </c>
       <c r="N39" t="b">
         <v>0</v>
       </c>
@@ -3194,6 +3208,9 @@
         <v>0</v>
       </c>
       <c r="Q39" t="b">
+        <v>0</v>
+      </c>
+      <c r="R39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3208,7 +3225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9A62C0-4FF1-4D76-A585-40BEF6566B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C72281-36D0-4E05-A37E-12429EAFD617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="214">
   <si>
     <t>actorId|String</t>
   </si>
@@ -577,6 +577,108 @@
   </si>
   <si>
     <t>maxLevel|Int</t>
+  </si>
+  <si>
+    <t>Spell_0004</t>
+  </si>
+  <si>
+    <t>Spell_Test04</t>
+  </si>
+  <si>
+    <t>Spell_0005</t>
+  </si>
+  <si>
+    <t>Spell_Test05</t>
+  </si>
+  <si>
+    <t>Spell_0006</t>
+  </si>
+  <si>
+    <t>Spell_Test06</t>
+  </si>
+  <si>
+    <t>Spell_0007</t>
+  </si>
+  <si>
+    <t>Spell_Test07</t>
+  </si>
+  <si>
+    <t>Spell_0008</t>
+  </si>
+  <si>
+    <t>Spell_Test08</t>
+  </si>
+  <si>
+    <t>Spell_0009</t>
+  </si>
+  <si>
+    <t>Spell_Test09</t>
+  </si>
+  <si>
+    <t>Spell_0010</t>
+  </si>
+  <si>
+    <t>Spell_Test10</t>
+  </si>
+  <si>
+    <t>Spell_0011</t>
+  </si>
+  <si>
+    <t>Spell_Test11</t>
+  </si>
+  <si>
+    <t>Spell_0012</t>
+  </si>
+  <si>
+    <t>Spell_Test12</t>
+  </si>
+  <si>
+    <t>Spell_0013</t>
+  </si>
+  <si>
+    <t>Spell_Test13</t>
+  </si>
+  <si>
+    <t>Spell_0014</t>
+  </si>
+  <si>
+    <t>Spell_Test14</t>
+  </si>
+  <si>
+    <t>Spell_0015</t>
+  </si>
+  <si>
+    <t>Spell_Test15</t>
+  </si>
+  <si>
+    <t>Spell_0016</t>
+  </si>
+  <si>
+    <t>Spell_Test16</t>
+  </si>
+  <si>
+    <t>Spell_0017</t>
+  </si>
+  <si>
+    <t>Spell_Test17</t>
+  </si>
+  <si>
+    <t>Spell_0018</t>
+  </si>
+  <si>
+    <t>Spell_Test18</t>
+  </si>
+  <si>
+    <t>Spell_0019</t>
+  </si>
+  <si>
+    <t>Spell_Test19</t>
+  </si>
+  <si>
+    <t>Spell_0020</t>
+  </si>
+  <si>
+    <t>Spell_Test20</t>
   </si>
 </sst>
 </file>
@@ -1934,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2085,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -2138,10 +2240,10 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -2188,18 +2290,38 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M5" s="1"/>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>1.5</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="N5" t="b">
         <v>0</v>
       </c>
@@ -2218,18 +2340,38 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="K6" t="s">
-        <v>98</v>
-      </c>
-      <c r="M6" s="1"/>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>1.5</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>164</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="N6" t="b">
         <v>0</v>
       </c>
@@ -2248,18 +2390,38 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M7" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>1.5</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="N7" t="b">
         <v>0</v>
       </c>
@@ -2278,18 +2440,38 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="K8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" s="1"/>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>1.5</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>162</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="N8" t="b">
         <v>0</v>
       </c>
@@ -2308,16 +2490,37 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="K9" t="s">
-        <v>104</v>
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>1.5</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9" t="s">
+        <v>165</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -2337,16 +2540,37 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>106</v>
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>1.5</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>166</v>
+      </c>
+      <c r="M10" t="s">
+        <v>167</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -2366,16 +2590,37 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>108</v>
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <v>1.5</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>162</v>
+      </c>
+      <c r="M11" t="s">
+        <v>163</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -2395,16 +2640,37 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>110</v>
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>1.5</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>164</v>
+      </c>
+      <c r="M12" t="s">
+        <v>165</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -2424,16 +2690,37 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="K13" t="s">
-        <v>112</v>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>1.5</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>166</v>
+      </c>
+      <c r="M13" t="s">
+        <v>167</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -2453,16 +2740,37 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>114</v>
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>1.5</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>162</v>
+      </c>
+      <c r="M14" t="s">
+        <v>163</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -2482,16 +2790,37 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
+        <v>200</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="K15" t="s">
-        <v>115</v>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>1.5</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="s">
+        <v>165</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -2511,16 +2840,37 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="K16" t="s">
-        <v>117</v>
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>203</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>1.5</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="s">
+        <v>167</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -2540,16 +2890,37 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="K17" t="s">
-        <v>118</v>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>1.5</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="s">
+        <v>163</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -2569,16 +2940,37 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="K18" t="s">
-        <v>119</v>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>1.5</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" t="s">
+        <v>165</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -2598,16 +2990,37 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="K19" t="s">
-        <v>120</v>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>1.5</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="s">
+        <v>167</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -2627,16 +3040,37 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
+        <v>210</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="K20" t="s">
-        <v>121</v>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
+        <v>1.5</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" t="s">
+        <v>163</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -2656,16 +3090,37 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="K21" t="s">
-        <v>122</v>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>1.5</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" t="s">
+        <v>165</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -2685,16 +3140,16 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="K22" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -2714,16 +3169,16 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="K23" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -2743,16 +3198,16 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -2772,16 +3227,16 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -2801,16 +3256,16 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -2830,16 +3285,16 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -2859,16 +3314,16 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -2888,16 +3343,16 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -2917,16 +3372,16 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -2946,16 +3401,16 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -2975,16 +3430,16 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="K32" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -3004,16 +3459,16 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -3033,28 +3488,22 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="s">
-        <v>137</v>
-      </c>
-      <c r="H34">
-        <v>5</v>
-      </c>
-      <c r="M34" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="K34" t="s">
+        <v>118</v>
       </c>
       <c r="N34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
         <v>0</v>
@@ -3068,19 +3517,16 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="K35" t="s">
+        <v>119</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -3100,13 +3546,16 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K36" t="s">
+        <v>120</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -3115,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="b">
         <v>0</v>
@@ -3126,19 +3575,16 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
-        <v>144</v>
-      </c>
-      <c r="H37">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="K37" t="s">
+        <v>121</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -3158,19 +3604,16 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="s">
-        <v>146</v>
-      </c>
-      <c r="H38">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="K38" t="s">
+        <v>122</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -3190,27 +3633,532 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="K39" t="s">
+        <v>123</v>
+      </c>
+      <c r="N39" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="b">
+        <v>0</v>
+      </c>
+      <c r="R39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="K40" t="s">
+        <v>124</v>
+      </c>
+      <c r="N40" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>0</v>
+      </c>
+      <c r="R40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="K41" t="s">
+        <v>125</v>
+      </c>
+      <c r="N41" t="b">
+        <v>0</v>
+      </c>
+      <c r="O41" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>0</v>
+      </c>
+      <c r="R41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="K42" t="s">
+        <v>126</v>
+      </c>
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>0</v>
+      </c>
+      <c r="R42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="K43" t="s">
+        <v>127</v>
+      </c>
+      <c r="N43" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="b">
+        <v>0</v>
+      </c>
+      <c r="R43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="K44" t="s">
+        <v>128</v>
+      </c>
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="b">
+        <v>0</v>
+      </c>
+      <c r="R44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="K45" t="s">
+        <v>129</v>
+      </c>
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="b">
+        <v>0</v>
+      </c>
+      <c r="R45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="K46" t="s">
+        <v>130</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="b">
+        <v>0</v>
+      </c>
+      <c r="R46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="K47" t="s">
+        <v>131</v>
+      </c>
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" t="b">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="b">
+        <v>0</v>
+      </c>
+      <c r="R47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="K48" t="s">
+        <v>132</v>
+      </c>
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="b">
+        <v>0</v>
+      </c>
+      <c r="R48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="K49" t="s">
+        <v>133</v>
+      </c>
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>0</v>
+      </c>
+      <c r="R49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="K50" t="s">
+        <v>134</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="b">
+        <v>0</v>
+      </c>
+      <c r="R50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>137</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="M51" t="s">
+        <v>138</v>
+      </c>
+      <c r="N51" t="b">
+        <v>1</v>
+      </c>
+      <c r="O51" t="b">
+        <v>1</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>0</v>
+      </c>
+      <c r="R51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>140</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>0</v>
+      </c>
+      <c r="R52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>0</v>
+      </c>
+      <c r="R53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>144</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" t="b">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="b">
+        <v>0</v>
+      </c>
+      <c r="R54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>146</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="N55" t="b">
+        <v>0</v>
+      </c>
+      <c r="O55" t="b">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="b">
+        <v>0</v>
+      </c>
+      <c r="R55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>147</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B56" t="s">
         <v>143</v>
       </c>
-      <c r="C39">
+      <c r="C56">
         <v>2</v>
       </c>
-      <c r="N39" t="b">
-        <v>0</v>
-      </c>
-      <c r="O39" t="b">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="b">
-        <v>0</v>
-      </c>
-      <c r="R39" t="b">
+      <c r="N56" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" t="b">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="b">
+        <v>0</v>
+      </c>
+      <c r="R56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3223,9 +4171,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3440,6 +4390,193 @@
         <v>250</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C72281-36D0-4E05-A37E-12429EAFD617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617EF9C9-355C-4B1D-A854-6F466BD461D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -2038,9 +2038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2299,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -2349,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -2399,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -2599,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -2649,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -2699,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -2799,7 +2797,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -2849,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -2899,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>5</v>
@@ -2949,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -2999,7 +2997,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -3049,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -4173,7 +4171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617EF9C9-355C-4B1D-A854-6F466BD461D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41D7915-4761-4D19-926D-E6D0FB979678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -2132,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>175</v>
@@ -2188,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>176</v>
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>181</v>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>183</v>
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>187</v>
@@ -2500,7 +2500,7 @@
         <v>3</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>189</v>
@@ -2600,7 +2600,7 @@
         <v>4</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
         <v>193</v>
@@ -2650,7 +2650,7 @@
         <v>3</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
         <v>195</v>
@@ -2750,7 +2750,7 @@
         <v>3</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G14" t="s">
         <v>199</v>
@@ -2800,7 +2800,7 @@
         <v>3</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
         <v>201</v>
@@ -2900,7 +2900,7 @@
         <v>4</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
         <v>205</v>
@@ -2950,7 +2950,7 @@
         <v>4</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
         <v>207</v>
@@ -3050,7 +3050,7 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
         <v>211</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41D7915-4761-4D19-926D-E6D0FB979678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EE59E4-EE03-4AB0-AFDB-A53B43EE2BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -1047,9 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E17F0A-8BD5-4C3A-9DFE-69FEAF521261}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3006,7 +3004,7 @@
         <v>209</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I19">
         <v>1.5</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EE59E4-EE03-4AB0-AFDB-A53B43EE2BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1691B1D2-C21C-4FE2-940F-6100F6F4A666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="215">
   <si>
     <t>actorId|String</t>
   </si>
@@ -679,6 +679,9 @@
   </si>
   <si>
     <t>Spell_Test20</t>
+  </si>
+  <si>
+    <t>ThreeWayPositionBuff</t>
   </si>
 </sst>
 </file>
@@ -2036,7 +2039,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3011,6 +3016,9 @@
       </c>
       <c r="J19" t="b">
         <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>214</v>
       </c>
       <c r="L19" t="s">
         <v>166</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1691B1D2-C21C-4FE2-940F-6100F6F4A666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC94E45D-4FA5-45C0-8F5E-3FE6630C3607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="219">
   <si>
     <t>actorId|String</t>
   </si>
@@ -682,6 +682,18 @@
   </si>
   <si>
     <t>ThreeWayPositionBuff</t>
+  </si>
+  <si>
+    <t>ElectronicCircleAttack</t>
+  </si>
+  <si>
+    <t>Spell_ElectronicCircle</t>
+  </si>
+  <si>
+    <t>ElectronicCircleSkillInfo</t>
+  </si>
+  <si>
+    <t>SpellName_Threeway</t>
   </si>
 </sst>
 </file>
@@ -2039,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2132,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -2188,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -2244,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>20</v>
@@ -2317,8 +2329,11 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
+      <c r="K5" t="s">
+        <v>215</v>
+      </c>
       <c r="L5" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>163</v>
@@ -2337,6 +2352,9 @@
       </c>
       <c r="R5" t="b">
         <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -3021,7 +3039,7 @@
         <v>214</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s">
         <v>167</v>
@@ -4177,7 +4195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4402,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>105</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -4556,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>250</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC94E45D-4FA5-45C0-8F5E-3FE6630C3607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A218C0-A094-421A-B7A9-DFA30770288D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="217">
   <si>
     <t>actorId|String</t>
   </si>
@@ -582,9 +582,6 @@
     <t>Spell_0004</t>
   </si>
   <si>
-    <t>Spell_Test04</t>
-  </si>
-  <si>
     <t>Spell_0005</t>
   </si>
   <si>
@@ -666,9 +663,6 @@
     <t>Spell_0018</t>
   </si>
   <si>
-    <t>Spell_Test18</t>
-  </si>
-  <si>
     <t>Spell_0019</t>
   </si>
   <si>
@@ -684,16 +678,16 @@
     <t>ThreeWayPositionBuff</t>
   </si>
   <si>
-    <t>ElectronicCircleAttack</t>
-  </si>
-  <si>
     <t>Spell_ElectronicCircle</t>
   </si>
   <si>
     <t>ElectronicCircleSkillInfo</t>
   </si>
   <si>
-    <t>SpellName_Threeway</t>
+    <t>ElectronicCircleCreate</t>
+  </si>
+  <si>
+    <t>Spell_ThreeWay</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2318,7 +2312,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -2333,7 +2327,7 @@
         <v>215</v>
       </c>
       <c r="L5" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>163</v>
@@ -2354,12 +2348,12 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -2374,7 +2368,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -2409,7 +2403,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -2424,7 +2418,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H7">
         <v>15</v>
@@ -2459,7 +2453,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -2474,7 +2468,7 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -2509,7 +2503,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2524,7 +2518,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -2559,7 +2553,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2574,7 +2568,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -2609,7 +2603,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2624,7 +2618,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -2659,7 +2653,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2674,7 +2668,7 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -2709,7 +2703,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -2724,7 +2718,7 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -2759,7 +2753,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2774,7 +2768,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -2809,7 +2803,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2824,7 +2818,7 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -2859,7 +2853,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -2874,7 +2868,7 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -2909,7 +2903,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -2924,7 +2918,7 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -2959,7 +2953,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -2974,7 +2968,7 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -3009,7 +3003,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -3024,7 +3018,7 @@
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H19">
         <v>12</v>
@@ -3036,10 +3030,10 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="M19" t="s">
         <v>167</v>
@@ -3062,7 +3056,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -3077,7 +3071,7 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H20">
         <v>10</v>
@@ -3112,7 +3106,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -3127,7 +3121,7 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -4195,7 +4189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4425,7 +4419,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -4436,7 +4430,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4447,7 +4441,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -4458,7 +4452,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4469,7 +4463,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -4480,7 +4474,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4491,7 +4485,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4502,7 +4496,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4513,7 +4507,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4524,7 +4518,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4535,7 +4529,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4546,7 +4540,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4557,7 +4551,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4568,7 +4562,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4579,7 +4573,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4590,7 +4584,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B31">
         <v>1</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A218C0-A094-421A-B7A9-DFA30770288D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C342D47-D52B-4691-8178-5003BCDE3DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="219">
   <si>
     <t>actorId|String</t>
   </si>
@@ -585,9 +585,6 @@
     <t>Spell_0005</t>
   </si>
   <si>
-    <t>Spell_Test05</t>
-  </si>
-  <si>
     <t>Spell_0006</t>
   </si>
   <si>
@@ -688,6 +685,15 @@
   </si>
   <si>
     <t>Spell_ThreeWay</t>
+  </si>
+  <si>
+    <t>Spell_Shackles</t>
+  </si>
+  <si>
+    <t>ShacklesSkillInfo</t>
+  </si>
+  <si>
+    <t>ShacklesCreate</t>
   </si>
 </sst>
 </file>
@@ -2312,7 +2318,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -2324,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L5" t="s">
         <v>162</v>
@@ -2348,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2362,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I6">
         <v>1.5</v>
@@ -2379,6 +2385,9 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
+      <c r="K6" t="s">
+        <v>218</v>
+      </c>
       <c r="L6" t="s">
         <v>164</v>
       </c>
@@ -2400,10 +2409,13 @@
       <c r="R6" t="b">
         <v>0</v>
       </c>
+      <c r="S6" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -2418,7 +2430,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H7">
         <v>15</v>
@@ -2453,7 +2465,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -2468,7 +2480,7 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -2503,7 +2515,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2518,7 +2530,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -2553,7 +2565,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2568,7 +2580,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -2603,7 +2615,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2618,7 +2630,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -2653,7 +2665,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2668,7 +2680,7 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -2703,7 +2715,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -2718,7 +2730,7 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -2753,7 +2765,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2768,7 +2780,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -2803,7 +2815,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2818,7 +2830,7 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -2853,7 +2865,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -2868,7 +2880,7 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -2903,7 +2915,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -2918,7 +2930,7 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -2953,7 +2965,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -2968,7 +2980,7 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -3003,7 +3015,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -3018,7 +3030,7 @@
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H19">
         <v>12</v>
@@ -3030,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L19" t="s">
         <v>166</v>
@@ -3056,7 +3068,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -3071,7 +3083,7 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H20">
         <v>10</v>
@@ -3106,7 +3118,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -3121,7 +3133,7 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -4414,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>175</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -4425,12 +4437,12 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>130</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4441,7 +4453,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -4452,7 +4464,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4463,7 +4475,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -4474,7 +4486,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4485,7 +4497,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4496,7 +4508,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4507,7 +4519,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4518,7 +4530,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4529,7 +4541,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4540,7 +4552,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4551,7 +4563,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4562,7 +4574,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4573,7 +4585,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4584,7 +4596,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B31">
         <v>1</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C342D47-D52B-4691-8178-5003BCDE3DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA50FD7-EC41-4742-9D23-4A9237971797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="223">
   <si>
     <t>actorId|String</t>
   </si>
@@ -588,15 +588,9 @@
     <t>Spell_0006</t>
   </si>
   <si>
-    <t>Spell_Test06</t>
-  </si>
-  <si>
     <t>Spell_0007</t>
   </si>
   <si>
-    <t>Spell_Test07</t>
-  </si>
-  <si>
     <t>Spell_0008</t>
   </si>
   <si>
@@ -694,6 +688,24 @@
   </si>
   <si>
     <t>ShacklesCreate</t>
+  </si>
+  <si>
+    <t>Spell_ElectronicSphere</t>
+  </si>
+  <si>
+    <t>ElectronicSphereCreate</t>
+  </si>
+  <si>
+    <t>ElectronicSphereSkillInfo</t>
+  </si>
+  <si>
+    <t>Spell_ChargingPoison</t>
+  </si>
+  <si>
+    <t>ChargingPoisonCreate</t>
+  </si>
+  <si>
+    <t>ChargingPoisonSkillInfo</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2318,7 +2330,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -2330,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L5" t="s">
         <v>162</v>
@@ -2354,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2374,7 +2386,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H6">
         <v>25</v>
@@ -2386,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L6" t="s">
         <v>164</v>
@@ -2410,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2424,16 +2436,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I7">
         <v>1.5</v>
@@ -2441,6 +2453,9 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="s">
+        <v>218</v>
+      </c>
       <c r="L7" t="s">
         <v>166</v>
       </c>
@@ -2462,10 +2477,13 @@
       <c r="R7" t="b">
         <v>0</v>
       </c>
+      <c r="S7" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -2480,10 +2498,10 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I8">
         <v>1.5</v>
@@ -2491,6 +2509,9 @@
       <c r="J8" t="b">
         <v>1</v>
       </c>
+      <c r="K8" t="s">
+        <v>221</v>
+      </c>
       <c r="L8" t="s">
         <v>162</v>
       </c>
@@ -2512,10 +2533,13 @@
       <c r="R8" t="b">
         <v>0</v>
       </c>
+      <c r="S8" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2530,7 +2554,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -2565,7 +2589,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2580,7 +2604,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -2615,7 +2639,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2630,7 +2654,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -2665,7 +2689,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2680,7 +2704,7 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -2715,7 +2739,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -2730,7 +2754,7 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -2765,7 +2789,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2780,7 +2804,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -2815,7 +2839,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2830,7 +2854,7 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -2865,7 +2889,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -2880,7 +2904,7 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -2915,7 +2939,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -2930,7 +2954,7 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -2965,7 +2989,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -2980,7 +3004,7 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -3015,7 +3039,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -3030,7 +3054,7 @@
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H19">
         <v>12</v>
@@ -3042,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s">
         <v>166</v>
@@ -3068,7 +3092,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -3083,7 +3107,7 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H20">
         <v>10</v>
@@ -3118,7 +3142,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -3133,7 +3157,7 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -4201,8 +4225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4448,23 +4472,23 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>250</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>105</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4475,7 +4499,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -4486,7 +4510,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4497,7 +4521,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4508,7 +4532,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4519,7 +4543,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4530,7 +4554,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4541,7 +4565,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4552,7 +4576,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4563,7 +4587,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4574,7 +4598,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4585,7 +4609,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4596,7 +4620,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B31">
         <v>1</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA50FD7-EC41-4742-9D23-4A9237971797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AAC66A-1A8E-46E4-98C5-F5D185C5881B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
@@ -693,9 +693,6 @@
     <t>Spell_ElectronicSphere</t>
   </si>
   <si>
-    <t>ElectronicSphereCreate</t>
-  </si>
-  <si>
     <t>ElectronicSphereSkillInfo</t>
   </si>
   <si>
@@ -706,6 +703,9 @@
   </si>
   <si>
     <t>ChargingPoisonSkillInfo</t>
+  </si>
+  <si>
+    <t>ElectronicSphereTransportSummon</t>
   </si>
 </sst>
 </file>
@@ -2063,9 +2063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2454,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L7" t="s">
         <v>166</v>
@@ -2478,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -2498,7 +2496,7 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H8">
         <v>17</v>
@@ -2510,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L8" t="s">
         <v>162</v>
@@ -2534,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -4226,7 +4224,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AAC66A-1A8E-46E4-98C5-F5D185C5881B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50968570-F088-443E-9F21-B2938DDE8F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="234">
   <si>
     <t>actorId|String</t>
   </si>
@@ -594,15 +594,9 @@
     <t>Spell_0008</t>
   </si>
   <si>
-    <t>Spell_Test08</t>
-  </si>
-  <si>
     <t>Spell_0009</t>
   </si>
   <si>
-    <t>Spell_Test09</t>
-  </si>
-  <si>
     <t>Spell_0010</t>
   </si>
   <si>
@@ -706,6 +700,45 @@
   </si>
   <si>
     <t>ElectronicSphereTransportSummon</t>
+  </si>
+  <si>
+    <t>40, 3</t>
+  </si>
+  <si>
+    <t>13, 100</t>
+  </si>
+  <si>
+    <t>Weapon0001</t>
+  </si>
+  <si>
+    <t>Spell_FirePillar</t>
+  </si>
+  <si>
+    <t>FirePillarCreate</t>
+  </si>
+  <si>
+    <t>FirePillarSkillInfo</t>
+  </si>
+  <si>
+    <t>Spell_FireBird</t>
+  </si>
+  <si>
+    <t>FireBirdCreate</t>
+  </si>
+  <si>
+    <t>FireBirdSkillInfo</t>
+  </si>
+  <si>
+    <t>FastLightningAttackSpeedUp</t>
+  </si>
+  <si>
+    <t>SharpSoulCriticalRateUp</t>
+  </si>
+  <si>
+    <t>MagicWeapon_TimeSlow</t>
+  </si>
+  <si>
+    <t>ClockTimeSlow, ClockMoveSpeedUp</t>
   </si>
 </sst>
 </file>
@@ -2061,9 +2094,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2328,7 +2363,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -2340,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L5" t="s">
         <v>162</v>
@@ -2364,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2384,7 +2419,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H6">
         <v>25</v>
@@ -2396,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L6" t="s">
         <v>164</v>
@@ -2420,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2440,7 +2475,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H7">
         <v>12</v>
@@ -2452,7 +2487,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L7" t="s">
         <v>166</v>
@@ -2476,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -2496,7 +2531,7 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H8">
         <v>17</v>
@@ -2508,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L8" t="s">
         <v>162</v>
@@ -2532,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -2552,10 +2587,10 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I9">
         <v>1.5</v>
@@ -2563,6 +2598,9 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
+      <c r="K9" t="s">
+        <v>225</v>
+      </c>
       <c r="L9" t="s">
         <v>164</v>
       </c>
@@ -2584,10 +2622,13 @@
       <c r="R9" t="b">
         <v>0</v>
       </c>
+      <c r="S9" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2602,7 +2643,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -2613,6 +2654,9 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="s">
+        <v>228</v>
+      </c>
       <c r="L10" t="s">
         <v>166</v>
       </c>
@@ -2634,10 +2678,13 @@
       <c r="R10" t="b">
         <v>0</v>
       </c>
+      <c r="S10" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -2652,10 +2699,10 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I11">
         <v>1.5</v>
@@ -2663,6 +2710,9 @@
       <c r="J11" t="b">
         <v>1</v>
       </c>
+      <c r="K11" t="s">
+        <v>230</v>
+      </c>
       <c r="L11" t="s">
         <v>162</v>
       </c>
@@ -2687,7 +2737,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2702,10 +2752,10 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I12">
         <v>1.5</v>
@@ -2713,6 +2763,9 @@
       <c r="J12" t="b">
         <v>1</v>
       </c>
+      <c r="K12" t="s">
+        <v>231</v>
+      </c>
       <c r="L12" t="s">
         <v>164</v>
       </c>
@@ -2737,7 +2790,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -2752,7 +2805,7 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -2787,7 +2840,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2802,7 +2855,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -2837,7 +2890,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2852,7 +2905,7 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -2887,7 +2940,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -2902,7 +2955,7 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -2937,7 +2990,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -2952,7 +3005,7 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -2987,7 +3040,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -3002,7 +3055,7 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -3037,7 +3090,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -3052,7 +3105,7 @@
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H19">
         <v>12</v>
@@ -3064,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s">
         <v>166</v>
@@ -3090,7 +3143,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -3105,7 +3158,7 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H20">
         <v>10</v>
@@ -3140,7 +3193,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -3155,7 +3208,7 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -3190,16 +3243,25 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
+      <c r="G22" t="s">
+        <v>232</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
       <c r="K22" t="s">
-        <v>97</v>
+        <v>233</v>
+      </c>
+      <c r="L22" t="s">
+        <v>162</v>
+      </c>
+      <c r="M22" t="s">
+        <v>163</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -3219,16 +3281,16 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="K23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -3248,16 +3310,16 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -3277,16 +3339,16 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -3306,16 +3368,16 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -3335,16 +3397,16 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -3364,16 +3426,16 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -3393,16 +3455,16 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -3422,16 +3484,16 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -3451,16 +3513,16 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -3480,16 +3542,16 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -3509,16 +3571,16 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -3538,16 +3600,16 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -3567,16 +3629,16 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -3596,16 +3658,16 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="K36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -3625,16 +3687,16 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -3654,16 +3716,16 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -3683,16 +3745,16 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="K39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -3712,16 +3774,16 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="K40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -3741,16 +3803,16 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="K41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -3770,16 +3832,16 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="K42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -3799,16 +3861,16 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="K43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -3828,16 +3890,16 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="K44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -3857,16 +3919,16 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="K45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -3886,16 +3948,16 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="K46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -3915,16 +3977,16 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="K47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -3944,16 +4006,16 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="K48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -3973,16 +4035,16 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="K49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -4002,16 +4064,16 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="K50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -4031,28 +4093,22 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="s">
-        <v>137</v>
-      </c>
-      <c r="H51">
-        <v>5</v>
-      </c>
-      <c r="M51" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="K51" t="s">
+        <v>134</v>
       </c>
       <c r="N51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
         <v>0</v>
@@ -4066,7 +4122,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
         <v>136</v>
@@ -4075,16 +4131,19 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H52">
         <v>5</v>
       </c>
+      <c r="M52" t="s">
+        <v>138</v>
+      </c>
       <c r="N52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="b">
         <v>0</v>
@@ -4098,13 +4157,19 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B53" t="s">
         <v>136</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>140</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -4113,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="b">
         <v>0</v>
@@ -4124,19 +4189,13 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="s">
-        <v>144</v>
-      </c>
-      <c r="H54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -4145,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="b">
         <v>0</v>
@@ -4156,7 +4215,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B55" t="s">
         <v>143</v>
@@ -4165,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H55">
         <v>5</v>
@@ -4188,27 +4247,59 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B56" t="s">
         <v>143</v>
       </c>
       <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>146</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="N56" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" t="b">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="b">
+        <v>0</v>
+      </c>
+      <c r="R56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>147</v>
+      </c>
+      <c r="B57" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57">
         <v>2</v>
       </c>
-      <c r="N56" t="b">
-        <v>0</v>
-      </c>
-      <c r="O56" t="b">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="b">
-        <v>0</v>
-      </c>
-      <c r="R56" t="b">
+      <c r="N57" t="b">
+        <v>0</v>
+      </c>
+      <c r="O57" t="b">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="b">
+        <v>0</v>
+      </c>
+      <c r="R57" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4221,10 +4312,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4491,13 +4582,13 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="H19">
-        <v>130</v>
+      <c r="H19" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -4508,29 +4599,29 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="H22">
-        <v>130</v>
+      <c r="H22" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4541,7 +4632,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4552,7 +4643,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4563,7 +4654,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4574,7 +4665,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4585,7 +4676,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4596,7 +4687,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4607,7 +4698,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4618,13 +4709,24 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="H31">
         <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>4.7</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50968570-F088-443E-9F21-B2938DDE8F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED9BC0C-4AE5-409E-8564-825A0ADC0625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
@@ -726,9 +726,6 @@
     <t>FireBirdCreate</t>
   </si>
   <si>
-    <t>FireBirdSkillInfo</t>
-  </si>
-  <si>
     <t>FastLightningAttackSpeedUp</t>
   </si>
   <si>
@@ -739,6 +736,9 @@
   </si>
   <si>
     <t>ClockTimeSlow, ClockMoveSpeedUp</t>
+  </si>
+  <si>
+    <t>FireBirdSkillInfo, FireBirdEffect</t>
   </si>
 </sst>
 </file>
@@ -2097,7 +2097,7 @@
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L11" t="s">
         <v>162</v>
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L12" t="s">
         <v>164</v>
@@ -3249,13 +3249,13 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
+        <v>231</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
         <v>232</v>
-      </c>
-      <c r="J22" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" t="s">
-        <v>233</v>
       </c>
       <c r="L22" t="s">
         <v>162</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED9BC0C-4AE5-409E-8564-825A0ADC0625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E395D9-E35D-4451-AC99-F30E60A9B0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="239">
   <si>
     <t>actorId|String</t>
   </si>
@@ -600,51 +600,27 @@
     <t>Spell_0010</t>
   </si>
   <si>
-    <t>Spell_Test10</t>
-  </si>
-  <si>
     <t>Spell_0011</t>
   </si>
   <si>
-    <t>Spell_Test11</t>
-  </si>
-  <si>
     <t>Spell_0012</t>
   </si>
   <si>
-    <t>Spell_Test12</t>
-  </si>
-  <si>
     <t>Spell_0013</t>
   </si>
   <si>
-    <t>Spell_Test13</t>
-  </si>
-  <si>
     <t>Spell_0014</t>
   </si>
   <si>
-    <t>Spell_Test14</t>
-  </si>
-  <si>
     <t>Spell_0015</t>
   </si>
   <si>
-    <t>Spell_Test15</t>
-  </si>
-  <si>
     <t>Spell_0016</t>
   </si>
   <si>
-    <t>Spell_Test16</t>
-  </si>
-  <si>
     <t>Spell_0017</t>
   </si>
   <si>
-    <t>Spell_Test17</t>
-  </si>
-  <si>
     <t>Spell_0018</t>
   </si>
   <si>
@@ -739,6 +715,45 @@
   </si>
   <si>
     <t>FireBirdSkillInfo, FireBirdEffect</t>
+  </si>
+  <si>
+    <t>Spell_FastLightning</t>
+  </si>
+  <si>
+    <t>Spell_SharpSoul</t>
+  </si>
+  <si>
+    <t>Spell_GravityRock</t>
+  </si>
+  <si>
+    <t>GravityRockSkillInfo, GravityRockLastSkillInfo</t>
+  </si>
+  <si>
+    <t>Spell_WhirlWind</t>
+  </si>
+  <si>
+    <t>WhirlWindSkillInfo</t>
+  </si>
+  <si>
+    <t>Spell_Tornado</t>
+  </si>
+  <si>
+    <t>TornadoSkillInfo</t>
+  </si>
+  <si>
+    <t>Spell_Coffin</t>
+  </si>
+  <si>
+    <t>CoffinSkillInfo</t>
+  </si>
+  <si>
+    <t>Spell_FrozenMine</t>
+  </si>
+  <si>
+    <t>Spell_OrbitalBeam</t>
+  </si>
+  <si>
+    <t>OrbitalBeamSkillInfo</t>
   </si>
 </sst>
 </file>
@@ -2096,9 +2111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2363,7 +2376,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -2375,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L5" t="s">
         <v>162</v>
@@ -2399,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2419,7 +2432,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H6">
         <v>25</v>
@@ -2431,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L6" t="s">
         <v>164</v>
@@ -2455,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2475,7 +2488,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H7">
         <v>12</v>
@@ -2487,7 +2500,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L7" t="s">
         <v>166</v>
@@ -2511,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -2531,7 +2544,7 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H8">
         <v>17</v>
@@ -2543,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L8" t="s">
         <v>162</v>
@@ -2567,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -2587,7 +2600,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="H9">
         <v>19</v>
@@ -2599,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L9" t="s">
         <v>164</v>
@@ -2623,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -2643,7 +2656,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -2655,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L10" t="s">
         <v>166</v>
@@ -2679,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -2699,7 +2712,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -2711,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="L11" t="s">
         <v>162</v>
@@ -2737,7 +2750,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -2752,7 +2765,7 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="H12">
         <v>30</v>
@@ -2764,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="L12" t="s">
         <v>164</v>
@@ -2790,7 +2803,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -2805,7 +2818,7 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -2837,10 +2850,13 @@
       <c r="R13" t="b">
         <v>0</v>
       </c>
+      <c r="S13" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -2855,7 +2871,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -2887,10 +2903,13 @@
       <c r="R14" t="b">
         <v>0</v>
       </c>
+      <c r="S14" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2905,7 +2924,7 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -2937,10 +2956,13 @@
       <c r="R15" t="b">
         <v>0</v>
       </c>
+      <c r="S15" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -2955,7 +2977,7 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -2987,10 +3009,13 @@
       <c r="R16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -3005,7 +3030,7 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -3037,10 +3062,13 @@
       <c r="R17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -3055,7 +3083,7 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -3087,10 +3115,13 @@
       <c r="R18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -3105,7 +3136,7 @@
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H19">
         <v>12</v>
@@ -3117,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s">
         <v>166</v>
@@ -3141,9 +3172,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -3158,7 +3189,7 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H20">
         <v>10</v>
@@ -3191,9 +3222,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -3208,7 +3239,7 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -3241,21 +3272,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
         <v>223</v>
       </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>231</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s">
         <v>162</v>
@@ -3279,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -3308,7 +3339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3337,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -3366,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -3395,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -3424,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>105</v>
       </c>
@@ -3453,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -3482,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>109</v>
       </c>
@@ -3511,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -3540,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -4314,7 +4345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4583,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -4610,18 +4641,18 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4632,7 +4663,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4643,7 +4674,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4654,7 +4685,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4665,7 +4696,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4676,7 +4707,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4687,7 +4718,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4698,7 +4729,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4709,7 +4740,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4720,7 +4751,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B32">
         <v>1</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E395D9-E35D-4451-AC99-F30E60A9B0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0249E09-1C63-4F69-9EBF-3DFDD1C68EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="240">
   <si>
     <t>actorId|String</t>
   </si>
@@ -754,6 +754,9 @@
   </si>
   <si>
     <t>OrbitalBeamSkillInfo</t>
+  </si>
+  <si>
+    <t>Weapon0002</t>
   </si>
 </sst>
 </file>
@@ -2109,9 +2112,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3282,6 +3287,9 @@
       <c r="G22" t="s">
         <v>223</v>
       </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
@@ -3312,16 +3320,25 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="K23" t="s">
-        <v>97</v>
+      <c r="G23" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>166</v>
+      </c>
+      <c r="M23" t="s">
+        <v>167</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -3341,16 +3358,16 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="K24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -3370,16 +3387,16 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -3399,16 +3416,16 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -3428,16 +3445,16 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="K27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -3457,16 +3474,16 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -3486,16 +3503,16 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -3515,16 +3532,16 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -3544,16 +3561,16 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -3573,16 +3590,16 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -3602,16 +3619,16 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -3631,16 +3648,16 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -3660,16 +3677,16 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -3689,16 +3706,16 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="K36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -3718,16 +3735,16 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -3747,16 +3764,16 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -3776,16 +3793,16 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="K39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -3805,16 +3822,16 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="K40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -3834,16 +3851,16 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="K41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -3863,16 +3880,16 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="K42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -3892,16 +3909,16 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="K43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -3921,16 +3938,16 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="K44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -3950,16 +3967,16 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="K45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -3979,16 +3996,16 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="K46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -4008,16 +4025,16 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="K47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -4037,16 +4054,16 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="K48" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -4066,16 +4083,16 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="K49" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -4095,16 +4112,16 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="K50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -4124,16 +4141,16 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="K51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -4153,28 +4170,22 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="s">
-        <v>137</v>
-      </c>
-      <c r="H52">
-        <v>5</v>
-      </c>
-      <c r="M52" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="K52" t="s">
+        <v>134</v>
       </c>
       <c r="N52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
         <v>0</v>
@@ -4188,7 +4199,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B53" t="s">
         <v>136</v>
@@ -4197,16 +4208,19 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H53">
         <v>5</v>
       </c>
+      <c r="M53" t="s">
+        <v>138</v>
+      </c>
       <c r="N53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="b">
         <v>0</v>
@@ -4220,13 +4234,19 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B54" t="s">
         <v>136</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>140</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -4235,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="b">
         <v>0</v>
@@ -4246,19 +4266,13 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="s">
-        <v>144</v>
-      </c>
-      <c r="H55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -4267,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="b">
         <v>0</v>
@@ -4278,7 +4292,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B56" t="s">
         <v>143</v>
@@ -4287,7 +4301,7 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H56">
         <v>5</v>
@@ -4310,27 +4324,59 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B57" t="s">
         <v>143</v>
       </c>
       <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>146</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="N57" t="b">
+        <v>0</v>
+      </c>
+      <c r="O57" t="b">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="b">
+        <v>0</v>
+      </c>
+      <c r="R57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58">
         <v>2</v>
       </c>
-      <c r="N57" t="b">
-        <v>0</v>
-      </c>
-      <c r="O57" t="b">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="b">
-        <v>0</v>
-      </c>
-      <c r="R57" t="b">
+      <c r="N58" t="b">
+        <v>0</v>
+      </c>
+      <c r="O58" t="b">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="b">
+        <v>0</v>
+      </c>
+      <c r="R58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4345,9 +4391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0249E09-1C63-4F69-9EBF-3DFDD1C68EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1D2072-5D3D-4335-BAE7-B396DCDADC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="275">
   <si>
     <t>actorId|String</t>
   </si>
@@ -627,15 +627,9 @@
     <t>Spell_0019</t>
   </si>
   <si>
-    <t>Spell_Test19</t>
-  </si>
-  <si>
     <t>Spell_0020</t>
   </si>
   <si>
-    <t>Spell_Test20</t>
-  </si>
-  <si>
     <t>ThreeWayPositionBuff</t>
   </si>
   <si>
@@ -757,6 +751,117 @@
   </si>
   <si>
     <t>Weapon0002</t>
+  </si>
+  <si>
+    <t>GravityRockCreate, GravityRockLastCreate</t>
+  </si>
+  <si>
+    <t>WhirlWindCreate</t>
+  </si>
+  <si>
+    <t>TornadoCreate</t>
+  </si>
+  <si>
+    <t>CoffinCreate</t>
+  </si>
+  <si>
+    <t>FrozenMineCreate</t>
+  </si>
+  <si>
+    <t>FrozenMineSkillInfo</t>
+  </si>
+  <si>
+    <t>OrbitalBeamCreate</t>
+  </si>
+  <si>
+    <t>Spell_FireDragon</t>
+  </si>
+  <si>
+    <t>FireDragonCreate</t>
+  </si>
+  <si>
+    <t>FireDragonSkillInfo</t>
+  </si>
+  <si>
+    <t>Spell_BigSword</t>
+  </si>
+  <si>
+    <t>BigSwordCreate</t>
+  </si>
+  <si>
+    <t>BigSwordSkillInfo</t>
+  </si>
+  <si>
+    <t>Spell_0021</t>
+  </si>
+  <si>
+    <t>Spell_HoldStarCircle</t>
+  </si>
+  <si>
+    <t>HoldStarCircleCreate</t>
+  </si>
+  <si>
+    <t>HoldStarCircleSkillInfo</t>
+  </si>
+  <si>
+    <t>Spell_0022</t>
+  </si>
+  <si>
+    <t>Spell_RedLaser</t>
+  </si>
+  <si>
+    <t>RedLaserCreate</t>
+  </si>
+  <si>
+    <t>RedLaserSkillInfo</t>
+  </si>
+  <si>
+    <t>Spell_0023</t>
+  </si>
+  <si>
+    <t>Spell_RockSpike</t>
+  </si>
+  <si>
+    <t>RockSpikeCreate</t>
+  </si>
+  <si>
+    <t>RockSpikeSkillInfo</t>
+  </si>
+  <si>
+    <t>Spell_0024</t>
+  </si>
+  <si>
+    <t>Spell_NatureVine</t>
+  </si>
+  <si>
+    <t>NatureVineCreate</t>
+  </si>
+  <si>
+    <t>NatureVineSkillInfo</t>
+  </si>
+  <si>
+    <t>Spell_0025</t>
+  </si>
+  <si>
+    <t>Spell_ElementalSpirit</t>
+  </si>
+  <si>
+    <t>ElementalSpiritCreate, ElementalSpiritLastCreate</t>
+  </si>
+  <si>
+    <t>ElementalSpiritSkillInfo, ElementalSpiritLastSkillInfo</t>
+  </si>
+  <si>
+    <t>285, 20</t>
+  </si>
+  <si>
+    <t>6, 50</t>
+  </si>
+  <si>
+    <t>4.8, 3</t>
+  </si>
+  <si>
+    <t>45, 75</t>
   </si>
 </sst>
 </file>
@@ -2112,9 +2217,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2381,7 +2486,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -2393,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L5" t="s">
         <v>162</v>
@@ -2417,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -2437,7 +2542,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H6">
         <v>25</v>
@@ -2449,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L6" t="s">
         <v>164</v>
@@ -2473,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -2493,7 +2598,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H7">
         <v>12</v>
@@ -2505,7 +2610,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L7" t="s">
         <v>166</v>
@@ -2529,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -2549,7 +2654,7 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H8">
         <v>17</v>
@@ -2561,7 +2666,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L8" t="s">
         <v>162</v>
@@ -2585,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -2605,7 +2710,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H9">
         <v>19</v>
@@ -2617,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L9" t="s">
         <v>164</v>
@@ -2641,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -2661,7 +2766,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -2673,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L10" t="s">
         <v>166</v>
@@ -2697,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -2717,7 +2822,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -2729,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L11" t="s">
         <v>162</v>
@@ -2770,7 +2875,7 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H12">
         <v>30</v>
@@ -2782,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L12" t="s">
         <v>164</v>
@@ -2823,7 +2928,7 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -2834,6 +2939,9 @@
       <c r="J13" t="b">
         <v>1</v>
       </c>
+      <c r="K13" t="s">
+        <v>238</v>
+      </c>
       <c r="L13" t="s">
         <v>166</v>
       </c>
@@ -2856,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -2876,7 +2984,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -2887,6 +2995,9 @@
       <c r="J14" t="b">
         <v>1</v>
       </c>
+      <c r="K14" t="s">
+        <v>239</v>
+      </c>
       <c r="L14" t="s">
         <v>162</v>
       </c>
@@ -2909,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -2929,7 +3040,7 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -2940,6 +3051,9 @@
       <c r="J15" t="b">
         <v>1</v>
       </c>
+      <c r="K15" t="s">
+        <v>240</v>
+      </c>
       <c r="L15" t="s">
         <v>164</v>
       </c>
@@ -2962,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -2982,7 +3096,7 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -2993,6 +3107,9 @@
       <c r="J16" t="b">
         <v>1</v>
       </c>
+      <c r="K16" t="s">
+        <v>241</v>
+      </c>
       <c r="L16" t="s">
         <v>166</v>
       </c>
@@ -3015,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -3035,7 +3152,7 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -3046,6 +3163,9 @@
       <c r="J17" t="b">
         <v>1</v>
       </c>
+      <c r="K17" t="s">
+        <v>242</v>
+      </c>
       <c r="L17" t="s">
         <v>162</v>
       </c>
@@ -3068,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -3088,7 +3208,7 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -3099,6 +3219,9 @@
       <c r="J18" t="b">
         <v>1</v>
       </c>
+      <c r="K18" t="s">
+        <v>244</v>
+      </c>
       <c r="L18" t="s">
         <v>164</v>
       </c>
@@ -3121,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -3141,7 +3264,7 @@
         <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H19">
         <v>12</v>
@@ -3153,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
         <v>166</v>
@@ -3194,7 +3317,7 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="H20">
         <v>10</v>
@@ -3205,6 +3328,9 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
+      <c r="K20" t="s">
+        <v>246</v>
+      </c>
       <c r="L20" t="s">
         <v>162</v>
       </c>
@@ -3226,10 +3352,13 @@
       <c r="R20" t="b">
         <v>0</v>
       </c>
+      <c r="S20" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -3244,7 +3373,7 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -3255,6 +3384,9 @@
       <c r="J21" t="b">
         <v>1</v>
       </c>
+      <c r="K21" t="s">
+        <v>249</v>
+      </c>
       <c r="L21" t="s">
         <v>164</v>
       </c>
@@ -3276,31 +3408,46 @@
       <c r="R21" t="b">
         <v>0</v>
       </c>
+      <c r="S21" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
       <c r="G22" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="I22">
+        <v>1.5</v>
       </c>
       <c r="J22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="L22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M22" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -3316,29 +3463,47 @@
       </c>
       <c r="R22" t="b">
         <v>0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
       <c r="G23" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="I23">
+        <v>1.5</v>
       </c>
       <c r="J23" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>257</v>
       </c>
       <c r="L23" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M23" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -3354,20 +3519,47 @@
       </c>
       <c r="R23" t="b">
         <v>0</v>
+      </c>
+      <c r="S23" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
+        <v>259</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>260</v>
+      </c>
+      <c r="H24">
+        <v>15</v>
+      </c>
+      <c r="I24">
+        <v>1.5</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
       <c r="K24" t="s">
-        <v>97</v>
+        <v>261</v>
+      </c>
+      <c r="L24" t="s">
+        <v>164</v>
+      </c>
+      <c r="M24" t="s">
+        <v>165</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -3383,20 +3575,47 @@
       </c>
       <c r="R24" t="b">
         <v>0</v>
+      </c>
+      <c r="S24" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>264</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>1.5</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
       <c r="K25" t="s">
-        <v>98</v>
+        <v>265</v>
+      </c>
+      <c r="L25" t="s">
+        <v>164</v>
+      </c>
+      <c r="M25" t="s">
+        <v>165</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -3412,20 +3631,47 @@
       </c>
       <c r="R25" t="b">
         <v>0</v>
+      </c>
+      <c r="S25" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" t="s">
-        <v>70</v>
+        <v>267</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>268</v>
+      </c>
+      <c r="H26">
+        <v>30</v>
+      </c>
+      <c r="I26">
+        <v>1.5</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>100</v>
+        <v>269</v>
+      </c>
+      <c r="L26" t="s">
+        <v>164</v>
+      </c>
+      <c r="M26" t="s">
+        <v>165</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -3441,20 +3687,35 @@
       </c>
       <c r="R26" t="b">
         <v>0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>221</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>102</v>
+        <v>222</v>
+      </c>
+      <c r="L27" t="s">
+        <v>162</v>
+      </c>
+      <c r="M27" t="s">
+        <v>163</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -3474,16 +3735,25 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
+        <v>237</v>
       </c>
       <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="K28" t="s">
-        <v>104</v>
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>221</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>166</v>
+      </c>
+      <c r="M28" t="s">
+        <v>167</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -3503,16 +3773,16 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -3532,16 +3802,16 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -3561,16 +3831,16 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -3590,16 +3860,16 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -3619,16 +3889,16 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -3648,16 +3918,16 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -3677,16 +3947,16 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -3706,16 +3976,16 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -3735,16 +4005,16 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K37" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -3764,16 +4034,16 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K38" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -3793,16 +4063,16 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="K39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -3822,16 +4092,16 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -3851,16 +4121,16 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="K41" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -3880,16 +4150,16 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="K42" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -3909,16 +4179,16 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="K43" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -3938,16 +4208,16 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="K44" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -3967,16 +4237,16 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="K45" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -3996,16 +4266,16 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="K46" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -4025,16 +4295,16 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="K47" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -4054,16 +4324,16 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="K48" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -4083,16 +4353,16 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="K49" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -4112,16 +4382,16 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="K50" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -4141,16 +4411,16 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="K51" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -4170,16 +4440,16 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="K52" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -4199,28 +4469,22 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="s">
-        <v>137</v>
-      </c>
-      <c r="H53">
-        <v>5</v>
-      </c>
-      <c r="M53" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="K53" t="s">
+        <v>130</v>
       </c>
       <c r="N53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
         <v>0</v>
@@ -4234,19 +4498,16 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="s">
-        <v>140</v>
-      </c>
-      <c r="H54">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="K54" t="s">
+        <v>131</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -4266,13 +4527,16 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K55" t="s">
+        <v>132</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -4281,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="b">
         <v>0</v>
@@ -4292,19 +4556,16 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="G56" t="s">
-        <v>144</v>
-      </c>
-      <c r="H56">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="K56" t="s">
+        <v>133</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -4324,19 +4585,16 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="s">
-        <v>146</v>
-      </c>
-      <c r="H57">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="K57" t="s">
+        <v>134</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -4356,27 +4614,184 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>137</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="M58" t="s">
+        <v>138</v>
+      </c>
+      <c r="N58" t="b">
+        <v>1</v>
+      </c>
+      <c r="O58" t="b">
+        <v>1</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="b">
+        <v>0</v>
+      </c>
+      <c r="R58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>140</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="N59" t="b">
+        <v>0</v>
+      </c>
+      <c r="O59" t="b">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="b">
+        <v>0</v>
+      </c>
+      <c r="R59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="N60" t="b">
+        <v>0</v>
+      </c>
+      <c r="O60" t="b">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="b">
+        <v>0</v>
+      </c>
+      <c r="R60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>144</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+      <c r="N61" t="b">
+        <v>0</v>
+      </c>
+      <c r="O61" t="b">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="b">
+        <v>0</v>
+      </c>
+      <c r="R61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B62" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>146</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="N62" t="b">
+        <v>0</v>
+      </c>
+      <c r="O62" t="b">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="b">
+        <v>0</v>
+      </c>
+      <c r="R62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>147</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B63" t="s">
         <v>143</v>
       </c>
-      <c r="C58">
+      <c r="C63">
         <v>2</v>
       </c>
-      <c r="N58" t="b">
-        <v>0</v>
-      </c>
-      <c r="O58" t="b">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="b">
-        <v>0</v>
-      </c>
-      <c r="R58" t="b">
+      <c r="N63" t="b">
+        <v>0</v>
+      </c>
+      <c r="O63" t="b">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="b">
+        <v>0</v>
+      </c>
+      <c r="R63" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4389,9 +4804,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4658,7 +5075,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -4691,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -4701,8 +5118,8 @@
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="H23">
-        <v>250</v>
+      <c r="H23" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -4713,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -4724,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -4735,7 +5152,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>250</v>
+        <v>847</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -4745,8 +5162,8 @@
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="H27">
-        <v>105</v>
+      <c r="H27" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -4757,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>130</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -4767,8 +5184,8 @@
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="H29">
-        <v>3</v>
+      <c r="H29" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -4779,28 +5196,83 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>105</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>130</v>
+        <v>580</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="H32">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>259</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>267</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="H37">
         <v>4.7</v>
       </c>
     </row>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1D2072-5D3D-4335-BAE7-B396DCDADC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911EFA6D-DE56-4B6C-AB38-4E423105F4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="276">
   <si>
     <t>actorId|String</t>
   </si>
@@ -738,9 +738,6 @@
     <t>Spell_Coffin</t>
   </si>
   <si>
-    <t>CoffinSkillInfo</t>
-  </si>
-  <si>
     <t>Spell_FrozenMine</t>
   </si>
   <si>
@@ -762,9 +759,6 @@
     <t>TornadoCreate</t>
   </si>
   <si>
-    <t>CoffinCreate</t>
-  </si>
-  <si>
     <t>FrozenMineCreate</t>
   </si>
   <si>
@@ -777,12 +771,6 @@
     <t>Spell_FireDragon</t>
   </si>
   <si>
-    <t>FireDragonCreate</t>
-  </si>
-  <si>
-    <t>FireDragonSkillInfo</t>
-  </si>
-  <si>
     <t>Spell_BigSword</t>
   </si>
   <si>
@@ -862,6 +850,21 @@
   </si>
   <si>
     <t>45, 75</t>
+  </si>
+  <si>
+    <t>CoffinCreate, CoffinLastCreate</t>
+  </si>
+  <si>
+    <t>CoffinSkillInfo, CoffinLastSkillInfo</t>
+  </si>
+  <si>
+    <t>FireDragonCreate, FireDragonLastCreate</t>
+  </si>
+  <si>
+    <t>FireDragonSkillInfo, FireDragonAreaSkillInfo</t>
+  </si>
+  <si>
+    <t>1640, 30</t>
   </si>
 </sst>
 </file>
@@ -2940,7 +2943,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L13" t="s">
         <v>166</v>
@@ -2996,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L14" t="s">
         <v>162</v>
@@ -3052,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L15" t="s">
         <v>164</v>
@@ -3108,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="L16" t="s">
         <v>166</v>
@@ -3132,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -3152,7 +3155,7 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -3164,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L17" t="s">
         <v>162</v>
@@ -3188,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -3208,7 +3211,7 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -3220,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L18" t="s">
         <v>164</v>
@@ -3244,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -3317,7 +3320,7 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H20">
         <v>10</v>
@@ -3329,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="L20" t="s">
         <v>162</v>
@@ -3353,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -3373,7 +3376,7 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -3385,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L21" t="s">
         <v>164</v>
@@ -3409,12 +3412,12 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -3429,7 +3432,7 @@
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H22">
         <v>17</v>
@@ -3441,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L22" t="s">
         <v>164</v>
@@ -3465,12 +3468,12 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -3485,7 +3488,7 @@
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H23">
         <v>19</v>
@@ -3497,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s">
         <v>164</v>
@@ -3521,12 +3524,12 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -3541,7 +3544,7 @@
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H24">
         <v>15</v>
@@ -3553,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L24" t="s">
         <v>164</v>
@@ -3577,12 +3580,12 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -3597,7 +3600,7 @@
         <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H25">
         <v>20</v>
@@ -3609,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L25" t="s">
         <v>164</v>
@@ -3633,12 +3636,12 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -3653,7 +3656,7 @@
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H26">
         <v>30</v>
@@ -3665,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s">
         <v>164</v>
@@ -3689,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -3735,7 +3738,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -5119,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -5163,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -5185,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -5195,8 +5198,8 @@
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="H30">
-        <v>1640</v>
+      <c r="H30" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -5212,7 +5215,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -5223,40 +5226,40 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>820</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>120</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B36">
         <v>1</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911EFA6D-DE56-4B6C-AB38-4E423105F4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD65D79-C803-4903-B2A8-073DEB13F28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="287">
   <si>
     <t>actorId|String</t>
   </si>
@@ -675,9 +675,6 @@
     <t>40, 3</t>
   </si>
   <si>
-    <t>13, 100</t>
-  </si>
-  <si>
     <t>Weapon0001</t>
   </si>
   <si>
@@ -865,6 +862,42 @@
   </si>
   <si>
     <t>1640, 30</t>
+  </si>
+  <si>
+    <t>10, 100</t>
+  </si>
+  <si>
+    <t>Weapon0003</t>
+  </si>
+  <si>
+    <t>Weapon0004</t>
+  </si>
+  <si>
+    <t>MagicWeapon_LetterBigCircle</t>
+  </si>
+  <si>
+    <t>LetterBigCircleCreate</t>
+  </si>
+  <si>
+    <t>LetterBigCircleSkillInfo</t>
+  </si>
+  <si>
+    <t>MagicWeapon_KnockbackBarrier</t>
+  </si>
+  <si>
+    <t>KnockbackBarrierCreate</t>
+  </si>
+  <si>
+    <t>KnockbackBarrierSkillInfo</t>
+  </si>
+  <si>
+    <t>MagicWeapon_FieryExplosion</t>
+  </si>
+  <si>
+    <t>FieryExplosionCreate</t>
+  </si>
+  <si>
+    <t>FieryExplosionSkillInfo</t>
   </si>
 </sst>
 </file>
@@ -2220,9 +2253,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2713,7 +2746,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H9">
         <v>19</v>
@@ -2725,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L9" t="s">
         <v>164</v>
@@ -2749,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -2769,7 +2802,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -2781,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L10" t="s">
         <v>166</v>
@@ -2805,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -2825,7 +2858,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -2837,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L11" t="s">
         <v>162</v>
@@ -2878,7 +2911,7 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H12">
         <v>30</v>
@@ -2890,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L12" t="s">
         <v>164</v>
@@ -2931,7 +2964,7 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -2943,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L13" t="s">
         <v>166</v>
@@ -2967,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -2987,7 +3020,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -2999,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L14" t="s">
         <v>162</v>
@@ -3023,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -3043,7 +3076,7 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -3055,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L15" t="s">
         <v>164</v>
@@ -3079,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -3099,7 +3132,7 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -3111,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L16" t="s">
         <v>166</v>
@@ -3135,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -3155,7 +3188,7 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -3167,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L17" t="s">
         <v>162</v>
@@ -3191,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -3211,7 +3244,7 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -3223,7 +3256,7 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L18" t="s">
         <v>164</v>
@@ -3247,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -3320,7 +3353,7 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H20">
         <v>10</v>
@@ -3332,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L20" t="s">
         <v>162</v>
@@ -3356,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -3376,7 +3409,7 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -3388,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L21" t="s">
         <v>164</v>
@@ -3412,12 +3445,12 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -3432,7 +3465,7 @@
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H22">
         <v>17</v>
@@ -3444,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L22" t="s">
         <v>164</v>
@@ -3468,12 +3501,12 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -3488,7 +3521,7 @@
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H23">
         <v>19</v>
@@ -3500,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L23" t="s">
         <v>164</v>
@@ -3524,12 +3557,12 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -3544,7 +3577,7 @@
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H24">
         <v>15</v>
@@ -3556,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L24" t="s">
         <v>164</v>
@@ -3580,12 +3613,12 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -3600,7 +3633,7 @@
         <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H25">
         <v>20</v>
@@ -3612,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s">
         <v>164</v>
@@ -3636,12 +3669,12 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -3656,7 +3689,7 @@
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H26">
         <v>30</v>
@@ -3668,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L26" t="s">
         <v>164</v>
@@ -3692,18 +3725,18 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -3712,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s">
         <v>162</v>
@@ -3738,19 +3771,22 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>221</v>
+        <v>278</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>279</v>
       </c>
       <c r="L28" t="s">
         <v>166</v>
@@ -3773,19 +3809,34 @@
       <c r="R28" t="b">
         <v>0</v>
       </c>
+      <c r="S28" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
+      <c r="G29" t="s">
+        <v>281</v>
+      </c>
+      <c r="H29">
+        <v>7</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
       <c r="K29" t="s">
-        <v>97</v>
+        <v>282</v>
+      </c>
+      <c r="L29" t="s">
+        <v>166</v>
+      </c>
+      <c r="M29" t="s">
+        <v>167</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -3801,20 +3852,35 @@
       </c>
       <c r="R29" t="b">
         <v>0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
+      <c r="G30" t="s">
+        <v>284</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
       <c r="K30" t="s">
-        <v>98</v>
+        <v>285</v>
+      </c>
+      <c r="L30" t="s">
+        <v>166</v>
+      </c>
+      <c r="M30" t="s">
+        <v>167</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -3830,20 +3896,23 @@
       </c>
       <c r="R30" t="b">
         <v>0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -3863,16 +3932,16 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -3892,16 +3961,16 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -3921,16 +3990,16 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -3950,16 +4019,16 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -3979,16 +4048,16 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -4008,16 +4077,16 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="K37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -4037,16 +4106,16 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="K38" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -4066,16 +4135,16 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -4095,16 +4164,16 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="K40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -4124,16 +4193,16 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="K41" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -4153,16 +4222,16 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -4182,16 +4251,16 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="K43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -4211,16 +4280,16 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="K44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -4240,16 +4309,16 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="K45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -4269,16 +4338,16 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="K46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -4298,16 +4367,16 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="K47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -4327,16 +4396,16 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="K48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -4356,16 +4425,16 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="K49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -4385,16 +4454,16 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="K50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -4414,16 +4483,16 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="K51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -4443,16 +4512,16 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="K52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -4472,16 +4541,16 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="K53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -4501,16 +4570,16 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="K54" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -4530,16 +4599,16 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
       <c r="K55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -4559,16 +4628,16 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
       <c r="K56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N56" t="b">
         <v>0</v>
@@ -4588,16 +4657,16 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="K57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -4617,28 +4686,22 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="s">
-        <v>137</v>
-      </c>
-      <c r="H58">
-        <v>5</v>
-      </c>
-      <c r="M58" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="K58" t="s">
+        <v>133</v>
       </c>
       <c r="N58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
         <v>0</v>
@@ -4652,19 +4715,16 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="G59" t="s">
-        <v>140</v>
-      </c>
-      <c r="H59">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="K59" t="s">
+        <v>134</v>
       </c>
       <c r="N59" t="b">
         <v>0</v>
@@ -4684,22 +4744,31 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
         <v>136</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>137</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="M60" t="s">
+        <v>138</v>
       </c>
       <c r="N60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="b">
         <v>0</v>
@@ -4710,16 +4779,16 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H61">
         <v>5</v>
@@ -4742,19 +4811,13 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="s">
-        <v>146</v>
-      </c>
-      <c r="H62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -4763,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" t="b">
         <v>0</v>
@@ -4774,27 +4837,91 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B63" t="s">
         <v>143</v>
       </c>
       <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>144</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="N63" t="b">
+        <v>0</v>
+      </c>
+      <c r="O63" t="b">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="b">
+        <v>0</v>
+      </c>
+      <c r="R63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>146</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="N64" t="b">
+        <v>0</v>
+      </c>
+      <c r="O64" t="b">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="b">
+        <v>0</v>
+      </c>
+      <c r="R64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65">
         <v>2</v>
       </c>
-      <c r="N63" t="b">
-        <v>0</v>
-      </c>
-      <c r="O63" t="b">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="b">
-        <v>0</v>
-      </c>
-      <c r="R63" t="b">
+      <c r="N65" t="b">
+        <v>0</v>
+      </c>
+      <c r="O65" t="b">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="b">
+        <v>0</v>
+      </c>
+      <c r="R65" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4807,9 +4934,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5111,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>212</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -5122,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -5166,7 +5293,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -5188,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -5199,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -5215,7 +5342,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -5226,7 +5353,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -5237,7 +5364,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5248,18 +5375,18 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5270,13 +5397,46 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="H37">
         <v>4.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>276</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>860</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD65D79-C803-4903-B2A8-073DEB13F28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C133BBD-B01E-4CEC-86A3-9DD932C68FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
@@ -2256,7 +2256,7 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3780,7 +3780,7 @@
         <v>278</v>
       </c>
       <c r="H28">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>281</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J29" t="b">
         <v>0</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C133BBD-B01E-4CEC-86A3-9DD932C68FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2CE4E9-93F2-49E5-8802-313164136A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="339">
   <si>
     <t>actorId|String</t>
   </si>
@@ -898,6 +898,162 @@
   </si>
   <si>
     <t>FieryExplosionSkillInfo</t>
+  </si>
+  <si>
+    <t>SpellName_ElectronicCircle</t>
+  </si>
+  <si>
+    <t>SpellDesc_ElectronicCircle</t>
+  </si>
+  <si>
+    <t>SpellName_Shackles</t>
+  </si>
+  <si>
+    <t>SpellDesc_Shackles</t>
+  </si>
+  <si>
+    <t>SpellName_ElectronicSphere</t>
+  </si>
+  <si>
+    <t>SpellDesc_ElectronicSphere</t>
+  </si>
+  <si>
+    <t>SpellName_ChargingPoison</t>
+  </si>
+  <si>
+    <t>SpellDesc_ChargingPoison</t>
+  </si>
+  <si>
+    <t>SpellName_FirePillar</t>
+  </si>
+  <si>
+    <t>SpellDesc_FirePillar</t>
+  </si>
+  <si>
+    <t>SpellName_FireBird</t>
+  </si>
+  <si>
+    <t>SpellDesc_FireBird</t>
+  </si>
+  <si>
+    <t>SpellName_FastLightning</t>
+  </si>
+  <si>
+    <t>SpellDesc_FastLightning</t>
+  </si>
+  <si>
+    <t>SpellName_SharpSoul</t>
+  </si>
+  <si>
+    <t>SpellDesc_SharpSoul</t>
+  </si>
+  <si>
+    <t>SpellName_GravityRock</t>
+  </si>
+  <si>
+    <t>SpellDesc_GravityRock</t>
+  </si>
+  <si>
+    <t>SpellName_WhirlWind</t>
+  </si>
+  <si>
+    <t>SpellDesc_WhirlWind</t>
+  </si>
+  <si>
+    <t>SpellName_Tornado</t>
+  </si>
+  <si>
+    <t>SpellDesc_Tornado</t>
+  </si>
+  <si>
+    <t>SpellName_Coffin</t>
+  </si>
+  <si>
+    <t>SpellDesc_Coffin</t>
+  </si>
+  <si>
+    <t>SpellName_FrozenMine</t>
+  </si>
+  <si>
+    <t>SpellDesc_FrozenMine</t>
+  </si>
+  <si>
+    <t>SpellName_OrbitalBeam</t>
+  </si>
+  <si>
+    <t>SpellDesc_OrbitalBeam</t>
+  </si>
+  <si>
+    <t>SpellName_ThreeWay</t>
+  </si>
+  <si>
+    <t>SpellDesc_ThreeWay</t>
+  </si>
+  <si>
+    <t>SpellName_FireDragon</t>
+  </si>
+  <si>
+    <t>SpellDesc_FireDragon</t>
+  </si>
+  <si>
+    <t>SpellName_BigSword</t>
+  </si>
+  <si>
+    <t>SpellDesc_BigSword</t>
+  </si>
+  <si>
+    <t>SpellName_HoldStarCircle</t>
+  </si>
+  <si>
+    <t>SpellDesc_HoldStarCircle</t>
+  </si>
+  <si>
+    <t>SpellName_RedLaser</t>
+  </si>
+  <si>
+    <t>SpellDesc_RedLaser</t>
+  </si>
+  <si>
+    <t>SpellName_RockSpike</t>
+  </si>
+  <si>
+    <t>SpellDesc_RockSpike</t>
+  </si>
+  <si>
+    <t>SpellName_NatureVine</t>
+  </si>
+  <si>
+    <t>SpellDesc_NatureVine</t>
+  </si>
+  <si>
+    <t>SpellName_ElementalSpirit</t>
+  </si>
+  <si>
+    <t>SpellDesc_ElementalSpirit</t>
+  </si>
+  <si>
+    <t>MagicWeaponName_TimeSlow</t>
+  </si>
+  <si>
+    <t>MagicWeaponDesc_TimeSlow</t>
+  </si>
+  <si>
+    <t>MagicWeaponName_LetterBigCircle</t>
+  </si>
+  <si>
+    <t>MagicWeaponDesc_LetterBigCircle</t>
+  </si>
+  <si>
+    <t>MagicWeaponName_KnockbackBarrier</t>
+  </si>
+  <si>
+    <t>MagicWeaponDesc_KnockbackBarrier</t>
+  </si>
+  <si>
+    <t>MagicWeaponName_FieryExplosion</t>
+  </si>
+  <si>
+    <t>MagicWeaponDesc_FieryExplosion</t>
   </si>
 </sst>
 </file>
@@ -2256,7 +2412,7 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2537,10 +2693,10 @@
         <v>200</v>
       </c>
       <c r="L5" t="s">
-        <v>162</v>
+        <v>287</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>163</v>
+        <v>288</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -2593,10 +2749,10 @@
         <v>204</v>
       </c>
       <c r="L6" t="s">
-        <v>164</v>
+        <v>289</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>165</v>
+        <v>290</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -2649,10 +2805,10 @@
         <v>210</v>
       </c>
       <c r="L7" t="s">
-        <v>166</v>
+        <v>291</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -2705,10 +2861,10 @@
         <v>208</v>
       </c>
       <c r="L8" t="s">
-        <v>162</v>
+        <v>293</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>163</v>
+        <v>294</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -2761,10 +2917,10 @@
         <v>214</v>
       </c>
       <c r="L9" t="s">
-        <v>164</v>
+        <v>295</v>
       </c>
       <c r="M9" t="s">
-        <v>165</v>
+        <v>296</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -2817,10 +2973,10 @@
         <v>217</v>
       </c>
       <c r="L10" t="s">
-        <v>166</v>
+        <v>297</v>
       </c>
       <c r="M10" t="s">
-        <v>167</v>
+        <v>298</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -2873,10 +3029,10 @@
         <v>218</v>
       </c>
       <c r="L11" t="s">
-        <v>162</v>
+        <v>299</v>
       </c>
       <c r="M11" t="s">
-        <v>163</v>
+        <v>300</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -2926,10 +3082,10 @@
         <v>219</v>
       </c>
       <c r="L12" t="s">
-        <v>164</v>
+        <v>301</v>
       </c>
       <c r="M12" t="s">
-        <v>165</v>
+        <v>302</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -2979,10 +3135,10 @@
         <v>236</v>
       </c>
       <c r="L13" t="s">
-        <v>166</v>
+        <v>303</v>
       </c>
       <c r="M13" t="s">
-        <v>167</v>
+        <v>304</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -3035,10 +3191,10 @@
         <v>237</v>
       </c>
       <c r="L14" t="s">
-        <v>162</v>
+        <v>305</v>
       </c>
       <c r="M14" t="s">
-        <v>163</v>
+        <v>306</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -3091,10 +3247,10 @@
         <v>238</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>307</v>
       </c>
       <c r="M15" t="s">
-        <v>165</v>
+        <v>308</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -3147,10 +3303,10 @@
         <v>270</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>309</v>
       </c>
       <c r="M16" t="s">
-        <v>167</v>
+        <v>310</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -3203,10 +3359,10 @@
         <v>239</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>311</v>
       </c>
       <c r="M17" t="s">
-        <v>163</v>
+        <v>312</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -3259,10 +3415,10 @@
         <v>241</v>
       </c>
       <c r="L18" t="s">
-        <v>164</v>
+        <v>313</v>
       </c>
       <c r="M18" t="s">
-        <v>165</v>
+        <v>314</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -3315,10 +3471,10 @@
         <v>197</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="M19" t="s">
-        <v>167</v>
+        <v>316</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -3368,10 +3524,10 @@
         <v>272</v>
       </c>
       <c r="L20" t="s">
-        <v>162</v>
+        <v>317</v>
       </c>
       <c r="M20" t="s">
-        <v>163</v>
+        <v>318</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -3424,10 +3580,10 @@
         <v>244</v>
       </c>
       <c r="L21" t="s">
-        <v>164</v>
+        <v>319</v>
       </c>
       <c r="M21" t="s">
-        <v>165</v>
+        <v>320</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -3480,10 +3636,10 @@
         <v>248</v>
       </c>
       <c r="L22" t="s">
-        <v>164</v>
+        <v>321</v>
       </c>
       <c r="M22" t="s">
-        <v>165</v>
+        <v>322</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -3536,10 +3692,10 @@
         <v>252</v>
       </c>
       <c r="L23" t="s">
-        <v>164</v>
+        <v>323</v>
       </c>
       <c r="M23" t="s">
-        <v>165</v>
+        <v>324</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -3592,10 +3748,10 @@
         <v>256</v>
       </c>
       <c r="L24" t="s">
-        <v>164</v>
+        <v>325</v>
       </c>
       <c r="M24" t="s">
-        <v>165</v>
+        <v>326</v>
       </c>
       <c r="N24" t="b">
         <v>0</v>
@@ -3648,10 +3804,10 @@
         <v>260</v>
       </c>
       <c r="L25" t="s">
-        <v>164</v>
+        <v>327</v>
       </c>
       <c r="M25" t="s">
-        <v>165</v>
+        <v>328</v>
       </c>
       <c r="N25" t="b">
         <v>0</v>
@@ -3704,10 +3860,10 @@
         <v>264</v>
       </c>
       <c r="L26" t="s">
-        <v>164</v>
+        <v>329</v>
       </c>
       <c r="M26" t="s">
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -3748,10 +3904,10 @@
         <v>221</v>
       </c>
       <c r="L27" t="s">
-        <v>162</v>
+        <v>331</v>
       </c>
       <c r="M27" t="s">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -3789,10 +3945,10 @@
         <v>279</v>
       </c>
       <c r="L28" t="s">
-        <v>166</v>
+        <v>333</v>
       </c>
       <c r="M28" t="s">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -3833,10 +3989,10 @@
         <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>166</v>
+        <v>335</v>
       </c>
       <c r="M29" t="s">
-        <v>167</v>
+        <v>336</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -3877,10 +4033,10 @@
         <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>166</v>
+        <v>337</v>
       </c>
       <c r="M30" t="s">
-        <v>167</v>
+        <v>338</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2CE4E9-93F2-49E5-8802-313164136A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19576E06-7825-4CF4-B276-9044131768BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="340">
   <si>
     <t>actorId|String</t>
   </si>
@@ -1054,6 +1054,9 @@
   </si>
   <si>
     <t>MagicWeaponDesc_FieryExplosion</t>
+  </si>
+  <si>
+    <t>7, 45, 15</t>
   </si>
 </sst>
 </file>
@@ -2411,7 +2414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5092,7 +5095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5372,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>250</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -5382,8 +5385,8 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="H21">
-        <v>7</v>
+      <c r="H21" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19576E06-7825-4CF4-B276-9044131768BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B35038-CAA2-4FF4-BF48-451EC63B72DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
@@ -672,9 +672,6 @@
     <t>ElectronicSphereTransportSummon</t>
   </si>
   <si>
-    <t>40, 3</t>
-  </si>
-  <si>
     <t>Weapon0001</t>
   </si>
   <si>
@@ -1057,6 +1054,9 @@
   </si>
   <si>
     <t>7, 45, 15</t>
+  </si>
+  <si>
+    <t>40, 6</t>
   </si>
 </sst>
 </file>
@@ -2696,10 +2696,10 @@
         <v>200</v>
       </c>
       <c r="L5" t="s">
+        <v>286</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -2752,10 +2752,10 @@
         <v>204</v>
       </c>
       <c r="L6" t="s">
+        <v>288</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -2808,10 +2808,10 @@
         <v>210</v>
       </c>
       <c r="L7" t="s">
+        <v>290</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -2864,10 +2864,10 @@
         <v>208</v>
       </c>
       <c r="L8" t="s">
+        <v>292</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H9">
         <v>19</v>
@@ -2917,31 +2917,31 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
+        <v>213</v>
+      </c>
+      <c r="L9" t="s">
+        <v>294</v>
+      </c>
+      <c r="M9" t="s">
+        <v>295</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
         <v>214</v>
-      </c>
-      <c r="L9" t="s">
-        <v>295</v>
-      </c>
-      <c r="M9" t="s">
-        <v>296</v>
-      </c>
-      <c r="N9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-      <c r="S9" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -2961,7 +2961,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -2973,14 +2973,14 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L10" t="s">
+        <v>296</v>
+      </c>
+      <c r="M10" t="s">
         <v>297</v>
       </c>
-      <c r="M10" t="s">
-        <v>298</v>
-      </c>
       <c r="N10" t="b">
         <v>0</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -3017,7 +3017,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -3029,13 +3029,13 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L11" t="s">
+        <v>298</v>
+      </c>
+      <c r="M11" t="s">
         <v>299</v>
-      </c>
-      <c r="M11" t="s">
-        <v>300</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -3070,7 +3070,7 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H12">
         <v>30</v>
@@ -3082,13 +3082,13 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L12" t="s">
+        <v>300</v>
+      </c>
+      <c r="M12" t="s">
         <v>301</v>
-      </c>
-      <c r="M12" t="s">
-        <v>302</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -3135,14 +3135,14 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L13" t="s">
+        <v>302</v>
+      </c>
+      <c r="M13" t="s">
         <v>303</v>
       </c>
-      <c r="M13" t="s">
-        <v>304</v>
-      </c>
       <c r="N13" t="b">
         <v>0</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -3179,7 +3179,7 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -3191,14 +3191,14 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L14" t="s">
+        <v>304</v>
+      </c>
+      <c r="M14" t="s">
         <v>305</v>
       </c>
-      <c r="M14" t="s">
-        <v>306</v>
-      </c>
       <c r="N14" t="b">
         <v>0</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -3235,7 +3235,7 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -3247,14 +3247,14 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L15" t="s">
+        <v>306</v>
+      </c>
+      <c r="M15" t="s">
         <v>307</v>
       </c>
-      <c r="M15" t="s">
-        <v>308</v>
-      </c>
       <c r="N15" t="b">
         <v>0</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -3291,7 +3291,7 @@
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H16">
         <v>15</v>
@@ -3303,31 +3303,31 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
+        <v>269</v>
+      </c>
+      <c r="L16" t="s">
+        <v>308</v>
+      </c>
+      <c r="M16" t="s">
+        <v>309</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
         <v>270</v>
-      </c>
-      <c r="L16" t="s">
-        <v>309</v>
-      </c>
-      <c r="M16" t="s">
-        <v>310</v>
-      </c>
-      <c r="N16" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="b">
-        <v>0</v>
-      </c>
-      <c r="R16" t="b">
-        <v>0</v>
-      </c>
-      <c r="S16" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -3347,7 +3347,7 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -3359,31 +3359,31 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
+        <v>238</v>
+      </c>
+      <c r="L17" t="s">
+        <v>310</v>
+      </c>
+      <c r="M17" t="s">
+        <v>311</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
         <v>239</v>
-      </c>
-      <c r="L17" t="s">
-        <v>311</v>
-      </c>
-      <c r="M17" t="s">
-        <v>312</v>
-      </c>
-      <c r="N17" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -3403,7 +3403,7 @@
         <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -3415,14 +3415,14 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L18" t="s">
+        <v>312</v>
+      </c>
+      <c r="M18" t="s">
         <v>313</v>
       </c>
-      <c r="M18" t="s">
-        <v>314</v>
-      </c>
       <c r="N18" t="b">
         <v>0</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -3474,10 +3474,10 @@
         <v>197</v>
       </c>
       <c r="L19" t="s">
+        <v>314</v>
+      </c>
+      <c r="M19" t="s">
         <v>315</v>
-      </c>
-      <c r="M19" t="s">
-        <v>316</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H20">
         <v>10</v>
@@ -3524,31 +3524,31 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
+        <v>271</v>
+      </c>
+      <c r="L20" t="s">
+        <v>316</v>
+      </c>
+      <c r="M20" t="s">
+        <v>317</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
         <v>272</v>
-      </c>
-      <c r="L20" t="s">
-        <v>317</v>
-      </c>
-      <c r="M20" t="s">
-        <v>318</v>
-      </c>
-      <c r="N20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" t="b">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="b">
-        <v>0</v>
-      </c>
-      <c r="R20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S20" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -3568,7 +3568,7 @@
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H21">
         <v>5</v>
@@ -3580,36 +3580,36 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
+        <v>243</v>
+      </c>
+      <c r="L21" t="s">
+        <v>318</v>
+      </c>
+      <c r="M21" t="s">
+        <v>319</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" t="s">
         <v>244</v>
-      </c>
-      <c r="L21" t="s">
-        <v>319</v>
-      </c>
-      <c r="M21" t="s">
-        <v>320</v>
-      </c>
-      <c r="N21" t="b">
-        <v>0</v>
-      </c>
-      <c r="O21" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="b">
-        <v>0</v>
-      </c>
-      <c r="R21" t="b">
-        <v>0</v>
-      </c>
-      <c r="S21" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -3624,7 +3624,7 @@
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H22">
         <v>17</v>
@@ -3636,36 +3636,36 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
+        <v>247</v>
+      </c>
+      <c r="L22" t="s">
+        <v>320</v>
+      </c>
+      <c r="M22" t="s">
+        <v>321</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
         <v>248</v>
-      </c>
-      <c r="L22" t="s">
-        <v>321</v>
-      </c>
-      <c r="M22" t="s">
-        <v>322</v>
-      </c>
-      <c r="N22" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="b">
-        <v>0</v>
-      </c>
-      <c r="R22" t="b">
-        <v>0</v>
-      </c>
-      <c r="S22" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -3680,7 +3680,7 @@
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H23">
         <v>19</v>
@@ -3692,36 +3692,36 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
+        <v>251</v>
+      </c>
+      <c r="L23" t="s">
+        <v>322</v>
+      </c>
+      <c r="M23" t="s">
+        <v>323</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" t="s">
         <v>252</v>
-      </c>
-      <c r="L23" t="s">
-        <v>323</v>
-      </c>
-      <c r="M23" t="s">
-        <v>324</v>
-      </c>
-      <c r="N23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R23" t="b">
-        <v>0</v>
-      </c>
-      <c r="S23" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -3736,7 +3736,7 @@
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H24">
         <v>15</v>
@@ -3748,36 +3748,36 @@
         <v>1</v>
       </c>
       <c r="K24" t="s">
+        <v>255</v>
+      </c>
+      <c r="L24" t="s">
+        <v>324</v>
+      </c>
+      <c r="M24" t="s">
+        <v>325</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
         <v>256</v>
-      </c>
-      <c r="L24" t="s">
-        <v>325</v>
-      </c>
-      <c r="M24" t="s">
-        <v>326</v>
-      </c>
-      <c r="N24" t="b">
-        <v>0</v>
-      </c>
-      <c r="O24" t="b">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="b">
-        <v>0</v>
-      </c>
-      <c r="R24" t="b">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -3792,7 +3792,7 @@
         <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H25">
         <v>20</v>
@@ -3804,36 +3804,36 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
+        <v>259</v>
+      </c>
+      <c r="L25" t="s">
+        <v>326</v>
+      </c>
+      <c r="M25" t="s">
+        <v>327</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" t="s">
         <v>260</v>
-      </c>
-      <c r="L25" t="s">
-        <v>327</v>
-      </c>
-      <c r="M25" t="s">
-        <v>328</v>
-      </c>
-      <c r="N25" t="b">
-        <v>0</v>
-      </c>
-      <c r="O25" t="b">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="b">
-        <v>0</v>
-      </c>
-      <c r="R25" t="b">
-        <v>0</v>
-      </c>
-      <c r="S25" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -3848,7 +3848,7 @@
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H26">
         <v>30</v>
@@ -3860,42 +3860,42 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
+        <v>263</v>
+      </c>
+      <c r="L26" t="s">
+        <v>328</v>
+      </c>
+      <c r="M26" t="s">
+        <v>329</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" t="b">
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
         <v>264</v>
-      </c>
-      <c r="L26" t="s">
-        <v>329</v>
-      </c>
-      <c r="M26" t="s">
-        <v>330</v>
-      </c>
-      <c r="N26" t="b">
-        <v>0</v>
-      </c>
-      <c r="O26" t="b">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="b">
-        <v>0</v>
-      </c>
-      <c r="R26" t="b">
-        <v>0</v>
-      </c>
-      <c r="S26" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H27">
         <v>8</v>
@@ -3904,13 +3904,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s">
+        <v>330</v>
+      </c>
+      <c r="M27" t="s">
         <v>331</v>
-      </c>
-      <c r="M27" t="s">
-        <v>332</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -3930,13 +3930,13 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -3945,42 +3945,42 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
+        <v>278</v>
+      </c>
+      <c r="L28" t="s">
+        <v>332</v>
+      </c>
+      <c r="M28" t="s">
+        <v>333</v>
+      </c>
+      <c r="N28" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
         <v>279</v>
-      </c>
-      <c r="L28" t="s">
-        <v>333</v>
-      </c>
-      <c r="M28" t="s">
-        <v>334</v>
-      </c>
-      <c r="N28" t="b">
-        <v>0</v>
-      </c>
-      <c r="O28" t="b">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="b">
-        <v>0</v>
-      </c>
-      <c r="R28" t="b">
-        <v>0</v>
-      </c>
-      <c r="S28" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H29">
         <v>6</v>
@@ -3989,75 +3989,75 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
+        <v>281</v>
+      </c>
+      <c r="L29" t="s">
+        <v>334</v>
+      </c>
+      <c r="M29" t="s">
+        <v>335</v>
+      </c>
+      <c r="N29" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" t="b">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
         <v>282</v>
-      </c>
-      <c r="L29" t="s">
-        <v>335</v>
-      </c>
-      <c r="M29" t="s">
-        <v>336</v>
-      </c>
-      <c r="N29" t="b">
-        <v>0</v>
-      </c>
-      <c r="O29" t="b">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="b">
-        <v>0</v>
-      </c>
-      <c r="R29" t="b">
-        <v>0</v>
-      </c>
-      <c r="S29" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="G30" t="s">
+        <v>283</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
         <v>284</v>
       </c>
-      <c r="H30">
-        <v>5</v>
-      </c>
-      <c r="J30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
+        <v>336</v>
+      </c>
+      <c r="M30" t="s">
+        <v>337</v>
+      </c>
+      <c r="N30" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
         <v>285</v>
-      </c>
-      <c r="L30" t="s">
-        <v>337</v>
-      </c>
-      <c r="M30" t="s">
-        <v>338</v>
-      </c>
-      <c r="N30" t="b">
-        <v>0</v>
-      </c>
-      <c r="O30" t="b">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="b">
-        <v>0</v>
-      </c>
-      <c r="R30" t="b">
-        <v>0</v>
-      </c>
-      <c r="S30" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -5364,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>211</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -5386,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -5397,7 +5397,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -5408,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -5452,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -5485,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -5501,7 +5501,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5534,18 +5534,18 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5589,7 +5589,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B40">
         <v>1</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B35038-CAA2-4FF4-BF48-451EC63B72DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DFC32A-994B-4E66-9A6C-7E2A0BF25884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -2414,7 +2414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
   <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2510,7 +2510,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
         <v>175</v>
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
         <v>176</v>
@@ -2622,7 +2622,7 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
         <v>177</v>
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
         <v>198</v>
@@ -2734,7 +2734,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
         <v>202</v>
@@ -2790,7 +2790,7 @@
         <v>3</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
         <v>205</v>
@@ -2846,7 +2846,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
         <v>207</v>
@@ -2902,7 +2902,7 @@
         <v>3</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
         <v>212</v>
@@ -2958,7 +2958,7 @@
         <v>4</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
         <v>215</v>
@@ -3014,7 +3014,7 @@
         <v>4</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
         <v>222</v>
@@ -3067,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G12" t="s">
         <v>223</v>
@@ -3120,7 +3120,7 @@
         <v>3</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s">
         <v>224</v>
@@ -3176,7 +3176,7 @@
         <v>3</v>
       </c>
       <c r="F14">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G14" t="s">
         <v>226</v>
@@ -3232,7 +3232,7 @@
         <v>3</v>
       </c>
       <c r="F15">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G15" t="s">
         <v>228</v>
@@ -3288,7 +3288,7 @@
         <v>4</v>
       </c>
       <c r="F16">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
         <v>230</v>
@@ -3344,7 +3344,7 @@
         <v>4</v>
       </c>
       <c r="F17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
         <v>231</v>
@@ -3400,7 +3400,7 @@
         <v>4</v>
       </c>
       <c r="F18">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
         <v>232</v>
@@ -3456,7 +3456,7 @@
         <v>5</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
         <v>201</v>
@@ -3509,7 +3509,7 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
         <v>241</v>
@@ -3565,7 +3565,7 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G21" t="s">
         <v>242</v>
@@ -3621,7 +3621,7 @@
         <v>5</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
         <v>246</v>
@@ -3677,7 +3677,7 @@
         <v>5</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
         <v>250</v>
@@ -3733,7 +3733,7 @@
         <v>5</v>
       </c>
       <c r="F24">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G24" t="s">
         <v>254</v>
@@ -3789,7 +3789,7 @@
         <v>5</v>
       </c>
       <c r="F25">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G25" t="s">
         <v>258</v>
@@ -3845,7 +3845,7 @@
         <v>5</v>
       </c>
       <c r="F26">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
         <v>262</v>
@@ -5095,7 +5095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DFC32A-994B-4E66-9A6C-7E2A0BF25884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DAFCFA-C9C9-434C-84F0-AA08483D0BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="316">
   <si>
     <t>actorId|String</t>
   </si>
@@ -684,12 +684,6 @@
     <t>FirePillarSkillInfo</t>
   </si>
   <si>
-    <t>Spell_FireBird</t>
-  </si>
-  <si>
-    <t>FireBirdCreate</t>
-  </si>
-  <si>
     <t>FastLightningAttackSpeedUp</t>
   </si>
   <si>
@@ -702,9 +696,6 @@
     <t>ClockTimeSlow, ClockMoveSpeedUp</t>
   </si>
   <si>
-    <t>FireBirdSkillInfo, FireBirdEffect</t>
-  </si>
-  <si>
     <t>Spell_FastLightning</t>
   </si>
   <si>
@@ -723,12 +714,6 @@
     <t>WhirlWindSkillInfo</t>
   </si>
   <si>
-    <t>Spell_Tornado</t>
-  </si>
-  <si>
-    <t>TornadoSkillInfo</t>
-  </si>
-  <si>
     <t>Spell_Coffin</t>
   </si>
   <si>
@@ -750,9 +735,6 @@
     <t>WhirlWindCreate</t>
   </si>
   <si>
-    <t>TornadoCreate</t>
-  </si>
-  <si>
     <t>FrozenMineCreate</t>
   </si>
   <si>
@@ -762,9 +744,6 @@
     <t>OrbitalBeamCreate</t>
   </si>
   <si>
-    <t>Spell_FireDragon</t>
-  </si>
-  <si>
     <t>Spell_BigSword</t>
   </si>
   <si>
@@ -813,27 +792,9 @@
     <t>Spell_0024</t>
   </si>
   <si>
-    <t>Spell_NatureVine</t>
-  </si>
-  <si>
-    <t>NatureVineCreate</t>
-  </si>
-  <si>
-    <t>NatureVineSkillInfo</t>
-  </si>
-  <si>
     <t>Spell_0025</t>
   </si>
   <si>
-    <t>Spell_ElementalSpirit</t>
-  </si>
-  <si>
-    <t>ElementalSpiritCreate, ElementalSpiritLastCreate</t>
-  </si>
-  <si>
-    <t>ElementalSpiritSkillInfo, ElementalSpiritLastSkillInfo</t>
-  </si>
-  <si>
     <t>285, 20</t>
   </si>
   <si>
@@ -852,12 +813,6 @@
     <t>CoffinSkillInfo, CoffinLastSkillInfo</t>
   </si>
   <si>
-    <t>FireDragonCreate, FireDragonLastCreate</t>
-  </si>
-  <si>
-    <t>FireDragonSkillInfo, FireDragonAreaSkillInfo</t>
-  </si>
-  <si>
     <t>1640, 30</t>
   </si>
   <si>
@@ -927,12 +882,6 @@
     <t>SpellDesc_FirePillar</t>
   </si>
   <si>
-    <t>SpellName_FireBird</t>
-  </si>
-  <si>
-    <t>SpellDesc_FireBird</t>
-  </si>
-  <si>
     <t>SpellName_FastLightning</t>
   </si>
   <si>
@@ -957,12 +906,6 @@
     <t>SpellDesc_WhirlWind</t>
   </si>
   <si>
-    <t>SpellName_Tornado</t>
-  </si>
-  <si>
-    <t>SpellDesc_Tornado</t>
-  </si>
-  <si>
     <t>SpellName_Coffin</t>
   </si>
   <si>
@@ -987,12 +930,6 @@
     <t>SpellDesc_ThreeWay</t>
   </si>
   <si>
-    <t>SpellName_FireDragon</t>
-  </si>
-  <si>
-    <t>SpellDesc_FireDragon</t>
-  </si>
-  <si>
     <t>SpellName_BigSword</t>
   </si>
   <si>
@@ -1017,18 +954,6 @@
     <t>SpellDesc_RockSpike</t>
   </si>
   <si>
-    <t>SpellName_NatureVine</t>
-  </si>
-  <si>
-    <t>SpellDesc_NatureVine</t>
-  </si>
-  <si>
-    <t>SpellName_ElementalSpirit</t>
-  </si>
-  <si>
-    <t>SpellDesc_ElementalSpirit</t>
-  </si>
-  <si>
     <t>MagicWeaponName_TimeSlow</t>
   </si>
   <si>
@@ -1057,6 +982,9 @@
   </si>
   <si>
     <t>40, 6</t>
+  </si>
+  <si>
+    <t>업데이트</t>
   </si>
 </sst>
 </file>
@@ -2412,11 +2340,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2437,7 +2363,7 @@
     <col min="19" max="19" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -2495,10 +2421,13 @@
       <c r="S1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2507,16 +2436,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2">
         <v>1.5</v>
@@ -2525,13 +2454,13 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="L2" t="s">
-        <v>162</v>
+        <v>271</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>163</v>
+        <v>272</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -2549,10 +2478,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -2572,7 +2504,7 @@
         <v>176</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I3">
         <v>1.5</v>
@@ -2607,8 +2539,11 @@
       <c r="S3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -2619,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -2628,7 +2563,7 @@
         <v>177</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>1.5</v>
@@ -2663,10 +2598,13 @@
       <c r="S4" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -2675,16 +2613,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I5">
         <v>1.5</v>
@@ -2693,13 +2631,13 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="L5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -2717,12 +2655,15 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -2731,16 +2672,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="H6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I6">
         <v>1.5</v>
@@ -2749,13 +2690,13 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="L6" t="s">
-        <v>288</v>
+        <v>162</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>289</v>
+        <v>163</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
@@ -2773,12 +2714,15 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -2793,10 +2737,10 @@
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I7">
         <v>1.5</v>
@@ -2805,13 +2749,13 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L7" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -2829,12 +2773,15 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -2843,16 +2790,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8">
         <v>1.5</v>
@@ -2861,13 +2808,13 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="L8" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -2885,12 +2832,15 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2905,10 +2855,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I9">
         <v>1.5</v>
@@ -2917,13 +2867,13 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="L9" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="M9" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -2941,12 +2891,15 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2955,16 +2908,16 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I10">
         <v>1.5</v>
@@ -2973,13 +2926,13 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L10" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="M10" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -2996,13 +2949,13 @@
       <c r="R10" t="b">
         <v>0</v>
       </c>
-      <c r="S10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -3017,10 +2970,10 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11">
         <v>1.5</v>
@@ -3029,13 +2982,13 @@
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="L11" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="M11" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -3052,25 +3005,31 @@
       <c r="R11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S11" t="s">
+        <v>209</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="H12">
         <v>30</v>
@@ -3082,13 +3041,13 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L12" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="M12" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -3105,28 +3064,34 @@
       <c r="R12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S12" t="s">
+        <v>206</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I13">
         <v>1.5</v>
@@ -3135,13 +3100,13 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="L13" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="M13" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -3159,30 +3124,33 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I14">
         <v>1.5</v>
@@ -3194,10 +3162,10 @@
         <v>236</v>
       </c>
       <c r="L14" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M14" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -3215,12 +3183,15 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -3235,10 +3206,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I15">
         <v>1.5</v>
@@ -3247,13 +3218,13 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="L15" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="M15" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -3270,13 +3241,13 @@
       <c r="R15" t="b">
         <v>0</v>
       </c>
-      <c r="S15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -3285,16 +3256,16 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I16">
         <v>1.5</v>
@@ -3303,13 +3274,13 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="L16" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="M16" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -3326,11 +3297,11 @@
       <c r="R16" t="b">
         <v>0</v>
       </c>
-      <c r="S16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -3341,16 +3312,16 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I17">
         <v>1.5</v>
@@ -3359,36 +3330,39 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
+        <v>232</v>
+      </c>
+      <c r="L17" t="s">
+        <v>291</v>
+      </c>
+      <c r="M17" t="s">
+        <v>292</v>
+      </c>
+      <c r="N17" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>233</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>238</v>
-      </c>
-      <c r="L17" t="s">
-        <v>310</v>
-      </c>
-      <c r="M17" t="s">
-        <v>311</v>
-      </c>
-      <c r="N17" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" t="b">
-        <v>0</v>
-      </c>
-      <c r="S17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>193</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -3403,10 +3377,10 @@
         <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I18">
         <v>1.5</v>
@@ -3418,10 +3392,10 @@
         <v>240</v>
       </c>
       <c r="L18" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="M18" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -3439,12 +3413,15 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -3453,16 +3430,16 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I19">
         <v>1.5</v>
@@ -3471,13 +3448,13 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="L19" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="M19" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -3494,10 +3471,16 @@
       <c r="R19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S19" t="s">
+        <v>222</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -3512,10 +3495,10 @@
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I20">
         <v>1.5</v>
@@ -3524,13 +3507,13 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="L20" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="M20" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="N20" t="b">
         <v>0</v>
@@ -3548,12 +3531,15 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -3568,10 +3554,10 @@
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I21">
         <v>1.5</v>
@@ -3580,13 +3566,13 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="M21" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -3604,355 +3590,274 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
+      <c r="G22" t="s">
+        <v>217</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" t="s">
+        <v>305</v>
+      </c>
+      <c r="M22" t="s">
+        <v>306</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>262</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>263</v>
+      </c>
+      <c r="L23" t="s">
+        <v>307</v>
+      </c>
+      <c r="M23" t="s">
+        <v>308</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" t="s">
+        <v>264</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>265</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>266</v>
+      </c>
+      <c r="L24" t="s">
+        <v>309</v>
+      </c>
+      <c r="M24" t="s">
+        <v>310</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
+        <v>267</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>268</v>
+      </c>
+      <c r="H25">
         <v>5</v>
       </c>
-      <c r="F22">
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>269</v>
+      </c>
+      <c r="L25" t="s">
+        <v>311</v>
+      </c>
+      <c r="M25" t="s">
+        <v>312</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" t="s">
+        <v>270</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>97</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>98</v>
+      </c>
+      <c r="N27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
         <v>100</v>
       </c>
-      <c r="G22" t="s">
-        <v>246</v>
-      </c>
-      <c r="H22">
-        <v>17</v>
-      </c>
-      <c r="I22">
-        <v>1.5</v>
-      </c>
-      <c r="J22" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>247</v>
-      </c>
-      <c r="L22" t="s">
-        <v>320</v>
-      </c>
-      <c r="M22" t="s">
-        <v>321</v>
-      </c>
-      <c r="N22" t="b">
-        <v>0</v>
-      </c>
-      <c r="O22" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="b">
-        <v>0</v>
-      </c>
-      <c r="R22" t="b">
-        <v>0</v>
-      </c>
-      <c r="S22" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>249</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>100</v>
-      </c>
-      <c r="G23" t="s">
-        <v>250</v>
-      </c>
-      <c r="H23">
-        <v>19</v>
-      </c>
-      <c r="I23">
-        <v>1.5</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
-        <v>251</v>
-      </c>
-      <c r="L23" t="s">
-        <v>322</v>
-      </c>
-      <c r="M23" t="s">
-        <v>323</v>
-      </c>
-      <c r="N23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R23" t="b">
-        <v>0</v>
-      </c>
-      <c r="S23" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>253</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-      <c r="F24">
-        <v>100</v>
-      </c>
-      <c r="G24" t="s">
-        <v>254</v>
-      </c>
-      <c r="H24">
-        <v>15</v>
-      </c>
-      <c r="I24">
-        <v>1.5</v>
-      </c>
-      <c r="J24" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>255</v>
-      </c>
-      <c r="L24" t="s">
-        <v>324</v>
-      </c>
-      <c r="M24" t="s">
-        <v>325</v>
-      </c>
-      <c r="N24" t="b">
-        <v>0</v>
-      </c>
-      <c r="O24" t="b">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="b">
-        <v>0</v>
-      </c>
-      <c r="R24" t="b">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25">
-        <v>100</v>
-      </c>
-      <c r="G25" t="s">
-        <v>258</v>
-      </c>
-      <c r="H25">
-        <v>20</v>
-      </c>
-      <c r="I25">
-        <v>1.5</v>
-      </c>
-      <c r="J25" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>259</v>
-      </c>
-      <c r="L25" t="s">
-        <v>326</v>
-      </c>
-      <c r="M25" t="s">
-        <v>327</v>
-      </c>
-      <c r="N25" t="b">
-        <v>0</v>
-      </c>
-      <c r="O25" t="b">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="b">
-        <v>0</v>
-      </c>
-      <c r="R25" t="b">
-        <v>0</v>
-      </c>
-      <c r="S25" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="F26">
-        <v>100</v>
-      </c>
-      <c r="G26" t="s">
-        <v>262</v>
-      </c>
-      <c r="H26">
-        <v>30</v>
-      </c>
-      <c r="I26">
-        <v>1.5</v>
-      </c>
-      <c r="J26" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
-        <v>263</v>
-      </c>
-      <c r="L26" t="s">
-        <v>328</v>
-      </c>
-      <c r="M26" t="s">
-        <v>329</v>
-      </c>
-      <c r="N26" t="b">
-        <v>0</v>
-      </c>
-      <c r="O26" t="b">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="b">
-        <v>0</v>
-      </c>
-      <c r="R26" t="b">
-        <v>0</v>
-      </c>
-      <c r="S26" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="G27" t="s">
-        <v>219</v>
-      </c>
-      <c r="H27">
-        <v>8</v>
-      </c>
-      <c r="J27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K27" t="s">
-        <v>220</v>
-      </c>
-      <c r="L27" t="s">
-        <v>330</v>
-      </c>
-      <c r="M27" t="s">
-        <v>331</v>
-      </c>
-      <c r="N27" t="b">
-        <v>0</v>
-      </c>
-      <c r="O27" t="b">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="b">
-        <v>0</v>
-      </c>
-      <c r="R27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="G28" t="s">
-        <v>277</v>
-      </c>
-      <c r="H28">
-        <v>4</v>
-      </c>
-      <c r="J28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" t="s">
-        <v>278</v>
-      </c>
-      <c r="L28" t="s">
-        <v>332</v>
-      </c>
-      <c r="M28" t="s">
-        <v>333</v>
-      </c>
       <c r="N28" t="b">
         <v>0</v>
       </c>
@@ -3968,34 +3873,22 @@
       <c r="R28" t="b">
         <v>0</v>
       </c>
-      <c r="S28" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>275</v>
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
       </c>
       <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>280</v>
-      </c>
-      <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="J29" t="b">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>281</v>
-      </c>
-      <c r="L29" t="s">
-        <v>334</v>
-      </c>
-      <c r="M29" t="s">
-        <v>335</v>
+        <v>102</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -4012,34 +3905,22 @@
       <c r="R29" t="b">
         <v>0</v>
       </c>
-      <c r="S29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>276</v>
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
       </c>
       <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="G30" t="s">
-        <v>283</v>
-      </c>
-      <c r="H30">
-        <v>5</v>
-      </c>
-      <c r="J30" t="b">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>284</v>
-      </c>
-      <c r="L30" t="s">
-        <v>336</v>
-      </c>
-      <c r="M30" t="s">
-        <v>337</v>
+        <v>104</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -4056,22 +3937,22 @@
       <c r="R30" t="b">
         <v>0</v>
       </c>
-      <c r="S30" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -4088,19 +3969,22 @@
       <c r="R31" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -4117,19 +4001,22 @@
       <c r="R32" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -4146,19 +4033,22 @@
       <c r="R33" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -4175,19 +4065,22 @@
       <c r="R34" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -4204,19 +4097,22 @@
       <c r="R35" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K36" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -4233,19 +4129,22 @@
       <c r="R36" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="K37" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -4262,669 +4161,741 @@
       <c r="R37" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="K38" t="s">
+        <v>118</v>
+      </c>
+      <c r="N38" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="b">
+        <v>0</v>
+      </c>
+      <c r="R38" t="b">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="K39" t="s">
+        <v>119</v>
+      </c>
+      <c r="N39" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="b">
+        <v>0</v>
+      </c>
+      <c r="R39" t="b">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="K40" t="s">
+        <v>120</v>
+      </c>
+      <c r="N40" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>0</v>
+      </c>
+      <c r="R40" t="b">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="K41" t="s">
+        <v>121</v>
+      </c>
+      <c r="N41" t="b">
+        <v>0</v>
+      </c>
+      <c r="O41" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>0</v>
+      </c>
+      <c r="R41" t="b">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="K42" t="s">
+        <v>122</v>
+      </c>
+      <c r="N42" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>0</v>
+      </c>
+      <c r="R42" t="b">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="K43" t="s">
+        <v>123</v>
+      </c>
+      <c r="N43" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="b">
+        <v>0</v>
+      </c>
+      <c r="R43" t="b">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="K44" t="s">
+        <v>124</v>
+      </c>
+      <c r="N44" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="b">
+        <v>0</v>
+      </c>
+      <c r="R44" t="b">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="K45" t="s">
+        <v>125</v>
+      </c>
+      <c r="N45" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="b">
+        <v>0</v>
+      </c>
+      <c r="R45" t="b">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="K46" t="s">
+        <v>126</v>
+      </c>
+      <c r="N46" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="b">
+        <v>0</v>
+      </c>
+      <c r="R46" t="b">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="K47" t="s">
+        <v>127</v>
+      </c>
+      <c r="N47" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" t="b">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="b">
+        <v>0</v>
+      </c>
+      <c r="R47" t="b">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="K48" t="s">
+        <v>128</v>
+      </c>
+      <c r="N48" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="b">
+        <v>0</v>
+      </c>
+      <c r="R48" t="b">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
         <v>68</v>
       </c>
-      <c r="C38">
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="K49" t="s">
+        <v>129</v>
+      </c>
+      <c r="N49" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>0</v>
+      </c>
+      <c r="R49" t="b">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="K50" t="s">
+        <v>130</v>
+      </c>
+      <c r="N50" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="b">
+        <v>0</v>
+      </c>
+      <c r="R50" t="b">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="K51" t="s">
+        <v>131</v>
+      </c>
+      <c r="N51" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>0</v>
+      </c>
+      <c r="R51" t="b">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="K52" t="s">
+        <v>132</v>
+      </c>
+      <c r="N52" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>0</v>
+      </c>
+      <c r="R52" t="b">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="K53" t="s">
+        <v>133</v>
+      </c>
+      <c r="N53" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>0</v>
+      </c>
+      <c r="R53" t="b">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="K54" t="s">
+        <v>134</v>
+      </c>
+      <c r="N54" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" t="b">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="b">
+        <v>0</v>
+      </c>
+      <c r="R54" t="b">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>137</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="M55" t="s">
+        <v>138</v>
+      </c>
+      <c r="N55" t="b">
+        <v>1</v>
+      </c>
+      <c r="O55" t="b">
+        <v>1</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="b">
+        <v>0</v>
+      </c>
+      <c r="R55" t="b">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>139</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>140</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="N56" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" t="b">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="b">
+        <v>0</v>
+      </c>
+      <c r="R56" t="b">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57">
         <v>2</v>
       </c>
-      <c r="K38" t="s">
-        <v>110</v>
-      </c>
-      <c r="N38" t="b">
-        <v>0</v>
-      </c>
-      <c r="O38" t="b">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="b">
-        <v>0</v>
-      </c>
-      <c r="R38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39">
+      <c r="N57" t="b">
+        <v>0</v>
+      </c>
+      <c r="O57" t="b">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="b">
+        <v>0</v>
+      </c>
+      <c r="R57" t="b">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>144</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="N58" t="b">
+        <v>0</v>
+      </c>
+      <c r="O58" t="b">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="b">
+        <v>0</v>
+      </c>
+      <c r="R58" t="b">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>146</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="N59" t="b">
+        <v>0</v>
+      </c>
+      <c r="O59" t="b">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="b">
+        <v>0</v>
+      </c>
+      <c r="R59" t="b">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60">
         <v>2</v>
       </c>
-      <c r="K39" t="s">
-        <v>112</v>
-      </c>
-      <c r="N39" t="b">
-        <v>0</v>
-      </c>
-      <c r="O39" t="b">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="b">
-        <v>0</v>
-      </c>
-      <c r="R39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="K40" t="s">
-        <v>114</v>
-      </c>
-      <c r="N40" t="b">
-        <v>0</v>
-      </c>
-      <c r="O40" t="b">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="b">
-        <v>0</v>
-      </c>
-      <c r="R40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="K41" t="s">
-        <v>115</v>
-      </c>
-      <c r="N41" t="b">
-        <v>0</v>
-      </c>
-      <c r="O41" t="b">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="b">
-        <v>0</v>
-      </c>
-      <c r="R41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="K42" t="s">
-        <v>117</v>
-      </c>
-      <c r="N42" t="b">
-        <v>0</v>
-      </c>
-      <c r="O42" t="b">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="b">
-        <v>0</v>
-      </c>
-      <c r="R42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="K43" t="s">
-        <v>118</v>
-      </c>
-      <c r="N43" t="b">
-        <v>0</v>
-      </c>
-      <c r="O43" t="b">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="b">
-        <v>0</v>
-      </c>
-      <c r="R43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="K44" t="s">
-        <v>119</v>
-      </c>
-      <c r="N44" t="b">
-        <v>0</v>
-      </c>
-      <c r="O44" t="b">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="b">
-        <v>0</v>
-      </c>
-      <c r="R44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="K45" t="s">
-        <v>120</v>
-      </c>
-      <c r="N45" t="b">
-        <v>0</v>
-      </c>
-      <c r="O45" t="b">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="b">
-        <v>0</v>
-      </c>
-      <c r="R45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="K46" t="s">
-        <v>121</v>
-      </c>
-      <c r="N46" t="b">
-        <v>0</v>
-      </c>
-      <c r="O46" t="b">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="b">
-        <v>0</v>
-      </c>
-      <c r="R46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="K47" t="s">
-        <v>122</v>
-      </c>
-      <c r="N47" t="b">
-        <v>0</v>
-      </c>
-      <c r="O47" t="b">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="b">
-        <v>0</v>
-      </c>
-      <c r="R47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-      <c r="K48" t="s">
-        <v>123</v>
-      </c>
-      <c r="N48" t="b">
-        <v>0</v>
-      </c>
-      <c r="O48" t="b">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="b">
-        <v>0</v>
-      </c>
-      <c r="R48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="K49" t="s">
-        <v>124</v>
-      </c>
-      <c r="N49" t="b">
-        <v>0</v>
-      </c>
-      <c r="O49" t="b">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="b">
-        <v>0</v>
-      </c>
-      <c r="R49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="K50" t="s">
-        <v>125</v>
-      </c>
-      <c r="N50" t="b">
-        <v>0</v>
-      </c>
-      <c r="O50" t="b">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="b">
-        <v>0</v>
-      </c>
-      <c r="R50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="K51" t="s">
-        <v>126</v>
-      </c>
-      <c r="N51" t="b">
-        <v>0</v>
-      </c>
-      <c r="O51" t="b">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="b">
-        <v>0</v>
-      </c>
-      <c r="R51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="K52" t="s">
-        <v>127</v>
-      </c>
-      <c r="N52" t="b">
-        <v>0</v>
-      </c>
-      <c r="O52" t="b">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="b">
-        <v>0</v>
-      </c>
-      <c r="R52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-      <c r="K53" t="s">
-        <v>128</v>
-      </c>
-      <c r="N53" t="b">
-        <v>0</v>
-      </c>
-      <c r="O53" t="b">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="b">
-        <v>0</v>
-      </c>
-      <c r="R53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-      <c r="K54" t="s">
-        <v>129</v>
-      </c>
-      <c r="N54" t="b">
-        <v>0</v>
-      </c>
-      <c r="O54" t="b">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="b">
-        <v>0</v>
-      </c>
-      <c r="R54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="K55" t="s">
-        <v>130</v>
-      </c>
-      <c r="N55" t="b">
-        <v>0</v>
-      </c>
-      <c r="O55" t="b">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="b">
-        <v>0</v>
-      </c>
-      <c r="R55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-      <c r="K56" t="s">
-        <v>131</v>
-      </c>
-      <c r="N56" t="b">
-        <v>0</v>
-      </c>
-      <c r="O56" t="b">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="b">
-        <v>0</v>
-      </c>
-      <c r="R56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57">
-        <v>3</v>
-      </c>
-      <c r="K57" t="s">
-        <v>132</v>
-      </c>
-      <c r="N57" t="b">
-        <v>0</v>
-      </c>
-      <c r="O57" t="b">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="b">
-        <v>0</v>
-      </c>
-      <c r="R57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="K58" t="s">
-        <v>133</v>
-      </c>
-      <c r="N58" t="b">
-        <v>0</v>
-      </c>
-      <c r="O58" t="b">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="b">
-        <v>0</v>
-      </c>
-      <c r="R58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59">
-        <v>3</v>
-      </c>
-      <c r="K59" t="s">
-        <v>134</v>
-      </c>
-      <c r="N59" t="b">
-        <v>0</v>
-      </c>
-      <c r="O59" t="b">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="b">
-        <v>0</v>
-      </c>
-      <c r="R59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="s">
-        <v>137</v>
-      </c>
-      <c r="H60">
-        <v>5</v>
-      </c>
-      <c r="M60" t="s">
-        <v>138</v>
-      </c>
       <c r="N60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
         <v>0</v>
@@ -4935,152 +4906,7 @@
       <c r="R60" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="s">
-        <v>140</v>
-      </c>
-      <c r="H61">
-        <v>5</v>
-      </c>
-      <c r="N61" t="b">
-        <v>0</v>
-      </c>
-      <c r="O61" t="b">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="b">
-        <v>0</v>
-      </c>
-      <c r="R61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="N62" t="b">
-        <v>0</v>
-      </c>
-      <c r="O62" t="b">
-        <v>0</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62" t="b">
-        <v>0</v>
-      </c>
-      <c r="R62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>142</v>
-      </c>
-      <c r="B63" t="s">
-        <v>143</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="s">
-        <v>144</v>
-      </c>
-      <c r="H63">
-        <v>5</v>
-      </c>
-      <c r="N63" t="b">
-        <v>0</v>
-      </c>
-      <c r="O63" t="b">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="b">
-        <v>0</v>
-      </c>
-      <c r="R63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>145</v>
-      </c>
-      <c r="B64" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="G64" t="s">
-        <v>146</v>
-      </c>
-      <c r="H64">
-        <v>5</v>
-      </c>
-      <c r="N64" t="b">
-        <v>0</v>
-      </c>
-      <c r="O64" t="b">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="b">
-        <v>0</v>
-      </c>
-      <c r="R64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>147</v>
-      </c>
-      <c r="B65" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="N65" t="b">
-        <v>0</v>
-      </c>
-      <c r="O65" t="b">
-        <v>0</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="b">
-        <v>0</v>
-      </c>
-      <c r="R65" t="b">
+      <c r="T60">
         <v>0</v>
       </c>
     </row>
@@ -5364,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -5386,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -5397,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -5408,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -5452,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -5474,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -5485,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -5501,7 +5327,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -5512,7 +5338,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -5523,7 +5349,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5534,18 +5360,18 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5567,7 +5393,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5578,7 +5404,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5589,7 +5415,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="B40">
         <v>1</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DAFCFA-C9C9-434C-84F0-AA08483D0BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90110C2A-340A-41F7-8F46-EBF7BC258740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -795,9 +795,6 @@
     <t>Spell_0025</t>
   </si>
   <si>
-    <t>285, 20</t>
-  </si>
-  <si>
     <t>6, 50</t>
   </si>
   <si>
@@ -985,6 +982,9 @@
   </si>
   <si>
     <t>업데이트</t>
+  </si>
+  <si>
+    <t>825, 20</t>
   </si>
 </sst>
 </file>
@@ -2342,7 +2342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2422,7 +2422,7 @@
         <v>155</v>
       </c>
       <c r="T1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -2457,10 +2457,10 @@
         <v>200</v>
       </c>
       <c r="L2" t="s">
+        <v>270</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -2634,10 +2634,10 @@
         <v>231</v>
       </c>
       <c r="L5" t="s">
+        <v>286</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -2752,10 +2752,10 @@
         <v>204</v>
       </c>
       <c r="L7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -2811,10 +2811,10 @@
         <v>248</v>
       </c>
       <c r="L8" t="s">
+        <v>302</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         <v>244</v>
       </c>
       <c r="L9" t="s">
+        <v>300</v>
+      </c>
+      <c r="M9" t="s">
         <v>301</v>
-      </c>
-      <c r="M9" t="s">
-        <v>302</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -2929,10 +2929,10 @@
         <v>215</v>
       </c>
       <c r="L10" t="s">
+        <v>280</v>
+      </c>
+      <c r="M10" t="s">
         <v>281</v>
-      </c>
-      <c r="M10" t="s">
-        <v>282</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -2985,10 +2985,10 @@
         <v>208</v>
       </c>
       <c r="L11" t="s">
+        <v>276</v>
+      </c>
+      <c r="M11" t="s">
         <v>277</v>
-      </c>
-      <c r="M11" t="s">
-        <v>278</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -3044,10 +3044,10 @@
         <v>210</v>
       </c>
       <c r="L12" t="s">
+        <v>274</v>
+      </c>
+      <c r="M12" t="s">
         <v>275</v>
-      </c>
-      <c r="M12" t="s">
-        <v>276</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -3103,10 +3103,10 @@
         <v>213</v>
       </c>
       <c r="L13" t="s">
+        <v>278</v>
+      </c>
+      <c r="M13" t="s">
         <v>279</v>
-      </c>
-      <c r="M13" t="s">
-        <v>280</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -3162,10 +3162,10 @@
         <v>236</v>
       </c>
       <c r="L14" t="s">
+        <v>296</v>
+      </c>
+      <c r="M14" t="s">
         <v>297</v>
-      </c>
-      <c r="M14" t="s">
-        <v>298</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -3221,10 +3221,10 @@
         <v>216</v>
       </c>
       <c r="L15" t="s">
+        <v>282</v>
+      </c>
+      <c r="M15" t="s">
         <v>283</v>
-      </c>
-      <c r="M15" t="s">
-        <v>284</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>197</v>
       </c>
       <c r="L16" t="s">
+        <v>294</v>
+      </c>
+      <c r="M16" t="s">
         <v>295</v>
-      </c>
-      <c r="M16" t="s">
-        <v>296</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -3333,10 +3333,10 @@
         <v>232</v>
       </c>
       <c r="L17" t="s">
+        <v>290</v>
+      </c>
+      <c r="M17" t="s">
         <v>291</v>
-      </c>
-      <c r="M17" t="s">
-        <v>292</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>240</v>
       </c>
       <c r="L18" t="s">
+        <v>298</v>
+      </c>
+      <c r="M18" t="s">
         <v>299</v>
-      </c>
-      <c r="M18" t="s">
-        <v>300</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -3451,10 +3451,10 @@
         <v>230</v>
       </c>
       <c r="L19" t="s">
+        <v>284</v>
+      </c>
+      <c r="M19" t="s">
         <v>285</v>
-      </c>
-      <c r="M19" t="s">
-        <v>286</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -3507,31 +3507,31 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
+        <v>255</v>
+      </c>
+      <c r="L20" t="s">
+        <v>288</v>
+      </c>
+      <c r="M20" t="s">
+        <v>289</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
         <v>256</v>
-      </c>
-      <c r="L20" t="s">
-        <v>289</v>
-      </c>
-      <c r="M20" t="s">
-        <v>290</v>
-      </c>
-      <c r="N20" t="b">
-        <v>0</v>
-      </c>
-      <c r="O20" t="b">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="b">
-        <v>0</v>
-      </c>
-      <c r="R20" t="b">
-        <v>0</v>
-      </c>
-      <c r="S20" t="s">
-        <v>257</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -3569,10 +3569,10 @@
         <v>234</v>
       </c>
       <c r="L21" t="s">
+        <v>292</v>
+      </c>
+      <c r="M21" t="s">
         <v>293</v>
-      </c>
-      <c r="M21" t="s">
-        <v>294</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -3616,10 +3616,10 @@
         <v>218</v>
       </c>
       <c r="L22" t="s">
+        <v>304</v>
+      </c>
+      <c r="M22" t="s">
         <v>305</v>
-      </c>
-      <c r="M22" t="s">
-        <v>306</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H23">
         <v>4</v>
@@ -3657,31 +3657,31 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
+        <v>262</v>
+      </c>
+      <c r="L23" t="s">
+        <v>306</v>
+      </c>
+      <c r="M23" t="s">
+        <v>307</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" t="s">
         <v>263</v>
-      </c>
-      <c r="L23" t="s">
-        <v>307</v>
-      </c>
-      <c r="M23" t="s">
-        <v>308</v>
-      </c>
-      <c r="N23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R23" t="b">
-        <v>0</v>
-      </c>
-      <c r="S23" t="s">
-        <v>264</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -3689,13 +3689,13 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H24">
         <v>6</v>
@@ -3704,31 +3704,31 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
+        <v>265</v>
+      </c>
+      <c r="L24" t="s">
+        <v>308</v>
+      </c>
+      <c r="M24" t="s">
+        <v>309</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
         <v>266</v>
-      </c>
-      <c r="L24" t="s">
-        <v>309</v>
-      </c>
-      <c r="M24" t="s">
-        <v>310</v>
-      </c>
-      <c r="N24" t="b">
-        <v>0</v>
-      </c>
-      <c r="O24" t="b">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="b">
-        <v>0</v>
-      </c>
-      <c r="R24" t="b">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
-        <v>267</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -3736,13 +3736,13 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H25">
         <v>5</v>
@@ -3751,31 +3751,31 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
+        <v>268</v>
+      </c>
+      <c r="L25" t="s">
+        <v>310</v>
+      </c>
+      <c r="M25" t="s">
+        <v>311</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" t="s">
         <v>269</v>
-      </c>
-      <c r="L25" t="s">
-        <v>311</v>
-      </c>
-      <c r="M25" t="s">
-        <v>312</v>
-      </c>
-      <c r="N25" t="b">
-        <v>0</v>
-      </c>
-      <c r="O25" t="b">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="b">
-        <v>0</v>
-      </c>
-      <c r="R25" t="b">
-        <v>0</v>
-      </c>
-      <c r="S25" t="s">
-        <v>270</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -4921,8 +4921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5179,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1380</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -5190,7 +5190,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -5212,7 +5212,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -5223,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -5234,7 +5234,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>252</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -5289,7 +5289,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>620</v>
+        <v>790</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -5300,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -5311,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -5344,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2460</v>
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -5404,7 +5404,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5415,7 +5415,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B40">
         <v>1</v>

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90110C2A-340A-41F7-8F46-EBF7BC258740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E014AD-4983-4F6C-8276-C744BB30B150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="317">
   <si>
     <t>actorId|String</t>
   </si>
@@ -985,6 +985,9 @@
   </si>
   <si>
     <t>825, 20</t>
+  </si>
+  <si>
+    <t>847, 4.6</t>
   </si>
 </sst>
 </file>
@@ -2342,7 +2345,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
   <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3321,7 +3326,7 @@
         <v>226</v>
       </c>
       <c r="H17">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I17">
         <v>1.5</v>
@@ -4922,7 +4927,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5179,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>580</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -5266,8 +5271,8 @@
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="H26">
-        <v>847</v>
+      <c r="H26" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -5333,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>0.33329999999999999</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -5355,7 +5360,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>250</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">

--- a/Excel/Action.xlsx
+++ b/Excel/Action.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E014AD-4983-4F6C-8276-C744BB30B150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED2A688-5D2D-4AB2-B548-C1881A2ACF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{68A32D28-3263-434A-A46E-6AC4AEF62380}"/>
   </bookViews>
   <sheets>
     <sheet name="ActionTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="323">
   <si>
     <t>actorId|String</t>
   </si>
@@ -988,6 +988,24 @@
   </si>
   <si>
     <t>847, 4.6</t>
+  </si>
+  <si>
+    <t>Weapon0005</t>
+  </si>
+  <si>
+    <t>MagicWeapon_HoldChain</t>
+  </si>
+  <si>
+    <t>HoldChainCreate</t>
+  </si>
+  <si>
+    <t>MagicWeaponName_HoldChain</t>
+  </si>
+  <si>
+    <t>MagicWeaponDesc_HoldChain</t>
+  </si>
+  <si>
+    <t>HoldChainSkillInfo</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2361,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE78FD6-8BB3-41E4-BA05-B77EC99DC9EA}">
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3788,16 +3806,28 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
+        <v>317</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
+      <c r="G26" t="s">
+        <v>318</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
       <c r="K26" t="s">
-        <v>97</v>
+        <v>319</v>
+      </c>
+      <c r="L26" t="s">
+        <v>320</v>
+      </c>
+      <c r="M26" t="s">
+        <v>321</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -3813,6 +3843,9 @@
       </c>
       <c r="R26" t="b">
         <v>0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>322</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -3820,16 +3853,16 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="K27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -3852,16 +3885,16 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -3884,16 +3917,16 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N29" t="b">
         <v>0</v>
@@ -3916,16 +3949,16 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N30" t="b">
         <v>0</v>
@@ -3948,16 +3981,16 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -3980,16 +4013,16 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N32" t="b">
         <v>0</v>
@@ -4012,16 +4045,16 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -4044,16 +4077,16 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
@@ -4076,16 +4109,16 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N35" t="b">
         <v>0</v>
@@ -4108,16 +4141,16 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
@@ -4140,16 +4173,16 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N37" t="b">
         <v>0</v>
@@ -4172,16 +4205,16 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N38" t="b">
         <v>0</v>
@@ -4204,16 +4237,16 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="K39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -4236,16 +4269,16 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>3</v>
       </c>
       <c r="K40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N40" t="b">
         <v>0</v>
@@ -4268,16 +4301,16 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
       <c r="K41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -4300,16 +4333,16 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="K42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N42" t="b">
         <v>0</v>
@@ -4332,16 +4365,16 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C43">
         <v>3</v>
       </c>
       <c r="K43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -4364,16 +4397,16 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C44">
         <v>3</v>
       </c>
       <c r="K44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N44" t="b">
         <v>0</v>
@@ -4396,16 +4429,16 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="K45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N45" t="b">
         <v>0</v>
@@ -4428,16 +4461,16 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="K46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N46" t="b">
         <v>0</v>
@@ -4460,16 +4493,16 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C47">
         <v>3</v>
       </c>
       <c r="K47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N47" t="b">
         <v>0</v>
@@ -4492,16 +4525,16 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="K48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -4524,16 +4557,16 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="K49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -4556,16 +4589,16 @@
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
       <c r="K50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N50" t="b">
         <v>0</v>
@@ -4588,16 +4621,16 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="K51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -4620,16 +4653,16 @@
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="K52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N52" t="b">
         <v>0</v>
@@ -4652,16 +4685,16 @@
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="K53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N53" t="b">
         <v>0</v>
@@ -4684,16 +4717,16 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
       <c r="K54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N54" t="b">
         <v>0</v>
@@ -4716,28 +4749,22 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="s">
-        <v>137</v>
-      </c>
-      <c r="H55">
-        <v>5</v>
-      </c>
-      <c r="M55" t="s">
-        <v>138</v>
+        <v>3</v>
+      </c>
+      <c r="K55" t="s">
+        <v>134</v>
       </c>
       <c r="N55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
         <v>0</v>
@@ -4754,7 +4781,7 @@
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B56" t="s">
         <v>136</v>
@@ -4763,16 +4790,19 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H56">
         <v>5</v>
       </c>
+      <c r="M56" t="s">
+        <v>138</v>
+      </c>
       <c r="N56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" t="b">
         <v>0</v>
@@ -4789,13 +4819,19 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s">
         <v>136</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>140</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
       </c>
       <c r="N57" t="b">
         <v>0</v>
@@ -4804,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="b">
         <v>0</v>
@@ -4818,19 +4854,13 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B58" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="s">
-        <v>144</v>
-      </c>
-      <c r="H58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N58" t="b">
         <v>0</v>
@@ -4839,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58" t="b">
         <v>0</v>
@@ -4853,7 +4883,7 @@
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
         <v>143</v>
@@ -4862,7 +4892,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H59">
         <v>5</v>
@@ -4888,30 +4918,62 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s">
         <v>143</v>
       </c>
       <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>146</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="N60" t="b">
+        <v>0</v>
+      </c>
+      <c r="O60" t="b">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="b">
+        <v>0</v>
+      </c>
+      <c r="R60" t="b">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61">
         <v>2</v>
       </c>
-      <c r="N60" t="b">
-        <v>0</v>
-      </c>
-      <c r="O60" t="b">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="b">
-        <v>0</v>
-      </c>
-      <c r="R60" t="b">
-        <v>0</v>
-      </c>
-      <c r="T60">
+      <c r="N61" t="b">
+        <v>0</v>
+      </c>
+      <c r="O61" t="b">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="b">
+        <v>0</v>
+      </c>
+      <c r="R61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4924,7 +4986,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047E48F-51D9-4964-8106-522940366805}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5429,6 +5491,17 @@
         <v>860</v>
       </c>
     </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>317</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
